--- a/data/df_final_codes.xlsx
+++ b/data/df_final_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abajrami/Documents/GitHub/temp_riskperception/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B40F3A-991B-0240-A8AE-51FCF8AFAC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B752D-BFCD-6140-B998-7EC0E95926C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21840" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1340">
   <si>
     <t>author</t>
   </si>
@@ -1896,9 +1896,6 @@
   </si>
   <si>
     <t>Follow-up effects of a tailored pre-counseling website with question prompt in breast cancer genetic counseling</t>
-  </si>
-  <si>
-    <t>0 to 100%.</t>
   </si>
   <si>
     <t>41.35</t>
@@ -4418,15 +4415,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EX242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="N65" workbookViewId="0">
+      <selection activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="2" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B2" t="s">
         <v>153</v>
@@ -5078,7 +5075,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B3" t="s">
         <v>173</v>
@@ -5194,7 +5191,7 @@
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
         <v>179</v>
@@ -5373,7 +5370,7 @@
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B5" t="s">
         <v>185</v>
@@ -5564,7 +5561,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B6" t="s">
         <v>190</v>
@@ -5677,7 +5674,7 @@
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
@@ -5769,7 +5766,7 @@
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B8" t="s">
         <v>201</v>
@@ -5900,7 +5897,7 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B9" t="s">
         <v>208</v>
@@ -6022,7 +6019,7 @@
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B10" t="s">
         <v>217</v>
@@ -6126,7 +6123,7 @@
     </row>
     <row r="11" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B11" t="s">
         <v>221</v>
@@ -6245,7 +6242,7 @@
     </row>
     <row r="12" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B12" t="s">
         <v>224</v>
@@ -6337,7 +6334,7 @@
     </row>
     <row r="13" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B13" t="s">
         <v>227</v>
@@ -6459,7 +6456,7 @@
     </row>
     <row r="14" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B14" t="s">
         <v>233</v>
@@ -6584,7 +6581,7 @@
     </row>
     <row r="15" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B15" t="s">
         <v>240</v>
@@ -6703,7 +6700,7 @@
     </row>
     <row r="16" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B16" t="s">
         <v>246</v>
@@ -6822,7 +6819,7 @@
     </row>
     <row r="17" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -6938,7 +6935,7 @@
     </row>
     <row r="18" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B18" t="s">
         <v>255</v>
@@ -7069,7 +7066,7 @@
     </row>
     <row r="19" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B19" t="s">
         <v>263</v>
@@ -7200,7 +7197,7 @@
     </row>
     <row r="20" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B20" t="s">
         <v>240</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="21" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B21" t="s">
         <v>272</v>
@@ -7414,7 +7411,7 @@
     </row>
     <row r="22" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B22" t="s">
         <v>275</v>
@@ -7536,7 +7533,7 @@
     </row>
     <row r="23" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B23" t="s">
         <v>280</v>
@@ -7631,7 +7628,7 @@
     </row>
     <row r="24" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B24" t="s">
         <v>285</v>
@@ -7804,7 +7801,7 @@
     </row>
     <row r="25" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B25" t="s">
         <v>290</v>
@@ -7908,7 +7905,7 @@
     </row>
     <row r="26" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B26" t="s">
         <v>294</v>
@@ -8003,7 +8000,7 @@
     </row>
     <row r="27" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B27" t="s">
         <v>297</v>
@@ -8116,7 +8113,7 @@
     </row>
     <row r="28" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B28" t="s">
         <v>301</v>
@@ -8211,7 +8208,7 @@
     </row>
     <row r="29" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B29" t="s">
         <v>305</v>
@@ -8339,7 +8336,7 @@
     </row>
     <row r="30" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B30" t="s">
         <v>307</v>
@@ -8431,7 +8428,7 @@
     </row>
     <row r="31" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B31" t="s">
         <v>311</v>
@@ -8550,7 +8547,7 @@
     </row>
     <row r="32" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B32" t="s">
         <v>318</v>
@@ -8642,7 +8639,7 @@
     </row>
     <row r="33" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B33" t="s">
         <v>321</v>
@@ -8773,7 +8770,7 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B34" t="s">
         <v>330</v>
@@ -8865,7 +8862,7 @@
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B35" t="s">
         <v>332</v>
@@ -8996,7 +8993,7 @@
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B36" t="s">
         <v>338</v>
@@ -9091,7 +9088,7 @@
     </row>
     <row r="37" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B37" t="s">
         <v>341</v>
@@ -9183,7 +9180,7 @@
     </row>
     <row r="38" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B38" t="s">
         <v>344</v>
@@ -9362,7 +9359,7 @@
     </row>
     <row r="39" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B39" t="s">
         <v>351</v>
@@ -9529,7 +9526,7 @@
     </row>
     <row r="40" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B40" t="s">
         <v>356</v>
@@ -9648,7 +9645,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B41" t="s">
         <v>361</v>
@@ -9764,7 +9761,7 @@
     </row>
     <row r="42" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B42" t="s">
         <v>363</v>
@@ -9883,7 +9880,7 @@
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B43" t="s">
         <v>367</v>
@@ -10056,7 +10053,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B44" t="s">
         <v>344</v>
@@ -10199,7 +10196,7 @@
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B45" t="s">
         <v>376</v>
@@ -10324,7 +10321,7 @@
     </row>
     <row r="46" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B46" t="s">
         <v>381</v>
@@ -10506,7 +10503,7 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B47" t="s">
         <v>387</v>
@@ -10601,7 +10598,7 @@
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B48" t="s">
         <v>390</v>
@@ -10723,7 +10720,7 @@
     </row>
     <row r="49" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B49" t="s">
         <v>394</v>
@@ -10812,7 +10809,7 @@
     </row>
     <row r="50" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B50" t="s">
         <v>396</v>
@@ -10901,7 +10898,7 @@
     </row>
     <row r="51" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B51" t="s">
         <v>399</v>
@@ -11017,7 +11014,7 @@
     </row>
     <row r="52" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B52" t="s">
         <v>402</v>
@@ -11112,7 +11109,7 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B53" t="s">
         <v>406</v>
@@ -11252,7 +11249,7 @@
     </row>
     <row r="54" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B54" t="s">
         <v>410</v>
@@ -11383,7 +11380,7 @@
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B55" t="s">
         <v>417</v>
@@ -11502,7 +11499,7 @@
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B56" t="s">
         <v>420</v>
@@ -11615,7 +11612,7 @@
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B57" t="s">
         <v>423</v>
@@ -11728,7 +11725,7 @@
     </row>
     <row r="58" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B58" t="s">
         <v>428</v>
@@ -11835,7 +11832,7 @@
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B59" t="s">
         <v>432</v>
@@ -11927,7 +11924,7 @@
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B60" t="s">
         <v>436</v>
@@ -12112,7 +12109,7 @@
     </row>
     <row r="61" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B61" t="s">
         <v>442</v>
@@ -12207,7 +12204,7 @@
     </row>
     <row r="62" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B62" t="s">
         <v>445</v>
@@ -12302,7 +12299,7 @@
     </row>
     <row r="63" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B63" t="s">
         <v>449</v>
@@ -12427,7 +12424,7 @@
     </row>
     <row r="64" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B64" t="s">
         <v>453</v>
@@ -12561,7 +12558,7 @@
     </row>
     <row r="65" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B65" t="s">
         <v>459</v>
@@ -12665,7 +12662,7 @@
     </row>
     <row r="66" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B66" t="s">
         <v>461</v>
@@ -12757,7 +12754,7 @@
     </row>
     <row r="67" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B67" t="s">
         <v>464</v>
@@ -12924,7 +12921,7 @@
     </row>
     <row r="68" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B68" t="s">
         <v>173</v>
@@ -13016,7 +13013,7 @@
     </row>
     <row r="69" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B69" t="s">
         <v>469</v>
@@ -13111,7 +13108,7 @@
     </row>
     <row r="70" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B70" t="s">
         <v>473</v>
@@ -13290,7 +13287,7 @@
     </row>
     <row r="71" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B71" t="s">
         <v>479</v>
@@ -13394,7 +13391,7 @@
     </row>
     <row r="72" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B72" t="s">
         <v>483</v>
@@ -13522,7 +13519,7 @@
     </row>
     <row r="73" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B73" t="s">
         <v>487</v>
@@ -13614,7 +13611,7 @@
     </row>
     <row r="74" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B74" t="s">
         <v>490</v>
@@ -13706,7 +13703,7 @@
     </row>
     <row r="75" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B75" t="s">
         <v>493</v>
@@ -13936,7 +13933,7 @@
     </row>
     <row r="76" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B76" t="s">
         <v>499</v>
@@ -14124,7 +14121,7 @@
     </row>
     <row r="77" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B77" t="s">
         <v>504</v>
@@ -14249,7 +14246,7 @@
     </row>
     <row r="78" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B78" t="s">
         <v>509</v>
@@ -14431,7 +14428,7 @@
     </row>
     <row r="79" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B79" t="s">
         <v>516</v>
@@ -14547,7 +14544,7 @@
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B80" t="s">
         <v>520</v>
@@ -14633,7 +14630,7 @@
     </row>
     <row r="81" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B81" t="s">
         <v>523</v>
@@ -14725,7 +14722,7 @@
     </row>
     <row r="82" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B82" t="s">
         <v>525</v>
@@ -14850,7 +14847,7 @@
     </row>
     <row r="83" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B83" t="s">
         <v>530</v>
@@ -14975,7 +14972,7 @@
     </row>
     <row r="84" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B84" t="s">
         <v>535</v>
@@ -15130,7 +15127,7 @@
     </row>
     <row r="85" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B85" t="s">
         <v>394</v>
@@ -15225,7 +15222,7 @@
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B86" t="s">
         <v>544</v>
@@ -15356,7 +15353,7 @@
     </row>
     <row r="87" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B87" t="s">
         <v>550</v>
@@ -15451,7 +15448,7 @@
     </row>
     <row r="88" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B88" t="s">
         <v>553</v>
@@ -15570,7 +15567,7 @@
     </row>
     <row r="89" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B89" t="s">
         <v>556</v>
@@ -15665,7 +15662,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B90" t="s">
         <v>560</v>
@@ -15799,7 +15796,7 @@
     </row>
     <row r="91" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B91" t="s">
         <v>566</v>
@@ -15891,7 +15888,7 @@
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B92" t="s">
         <v>568</v>
@@ -16007,7 +16004,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B93" t="s">
         <v>442</v>
@@ -16168,7 +16165,7 @@
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B94" t="s">
         <v>572</v>
@@ -16260,7 +16257,7 @@
     </row>
     <row r="95" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B95" t="s">
         <v>574</v>
@@ -16382,7 +16379,7 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B96" t="s">
         <v>577</v>
@@ -16516,7 +16513,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B97" t="s">
         <v>582</v>
@@ -16608,7 +16605,7 @@
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B98" t="s">
         <v>584</v>
@@ -16736,7 +16733,7 @@
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B99" t="s">
         <v>587</v>
@@ -16825,7 +16822,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B100" t="s">
         <v>590</v>
@@ -16944,7 +16941,7 @@
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B101" t="s">
         <v>594</v>
@@ -17066,7 +17063,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B102" t="s">
         <v>597</v>
@@ -17197,7 +17194,7 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B103" t="s">
         <v>601</v>
@@ -17322,7 +17319,7 @@
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B104" t="s">
         <v>606</v>
@@ -17447,7 +17444,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B105" t="s">
         <v>609</v>
@@ -17542,7 +17539,7 @@
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B106" t="s">
         <v>574</v>
@@ -17670,7 +17667,7 @@
     </row>
     <row r="107" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B107" t="s">
         <v>617</v>
@@ -17759,7 +17756,7 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B108" t="s">
         <v>620</v>
@@ -17786,7 +17783,7 @@
         <v>158</v>
       </c>
       <c r="Q108" t="s">
-        <v>622</v>
+        <v>181</v>
       </c>
       <c r="R108" t="s">
         <v>159</v>
@@ -17906,7 +17903,7 @@
         <v>197</v>
       </c>
       <c r="EE108" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="EF108">
         <v>41.35</v>
@@ -17918,7 +17915,7 @@
         <v>21</v>
       </c>
       <c r="ET108" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="EU108">
         <v>69</v>
@@ -17926,19 +17923,19 @@
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B109" t="s">
+        <v>624</v>
+      </c>
+      <c r="C109" t="s">
         <v>625</v>
-      </c>
-      <c r="C109" t="s">
-        <v>626</v>
       </c>
       <c r="D109">
         <v>2014</v>
       </c>
       <c r="E109" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F109" t="s">
         <v>155</v>
@@ -17992,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="AU109" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AV109">
         <v>1</v>
@@ -18021,13 +18018,13 @@
     </row>
     <row r="110" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B110" t="s">
+        <v>628</v>
+      </c>
+      <c r="C110" t="s">
         <v>629</v>
-      </c>
-      <c r="C110" t="s">
-        <v>630</v>
       </c>
       <c r="D110">
         <v>1994</v>
@@ -18084,7 +18081,7 @@
         <v>0</v>
       </c>
       <c r="AU110" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AV110">
         <v>1</v>
@@ -18132,18 +18129,18 @@
         <v>0.47</v>
       </c>
       <c r="EE110" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B111" t="s">
+        <v>632</v>
+      </c>
+      <c r="C111" t="s">
         <v>633</v>
-      </c>
-      <c r="C111" t="s">
-        <v>634</v>
       </c>
       <c r="D111">
         <v>2008</v>
@@ -18229,13 +18226,13 @@
     </row>
     <row r="112" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B112" t="s">
+        <v>634</v>
+      </c>
+      <c r="C112" t="s">
         <v>635</v>
-      </c>
-      <c r="C112" t="s">
-        <v>636</v>
       </c>
       <c r="D112">
         <v>2008</v>
@@ -18340,30 +18337,30 @@
         <v>149</v>
       </c>
       <c r="EE112" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="EO112">
         <v>12</v>
       </c>
       <c r="ET112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="113" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B113" t="s">
+        <v>638</v>
+      </c>
+      <c r="C113" t="s">
         <v>639</v>
-      </c>
-      <c r="C113" t="s">
-        <v>640</v>
       </c>
       <c r="D113">
         <v>2017</v>
       </c>
       <c r="E113" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F113" t="s">
         <v>155</v>
@@ -18446,13 +18443,13 @@
     </row>
     <row r="114" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B114" t="s">
+        <v>641</v>
+      </c>
+      <c r="C114" t="s">
         <v>642</v>
-      </c>
-      <c r="C114" t="s">
-        <v>643</v>
       </c>
       <c r="D114">
         <v>2017</v>
@@ -18470,7 +18467,7 @@
         <v>159</v>
       </c>
       <c r="V114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA114" t="s">
         <v>160</v>
@@ -18509,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="AU114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AV114">
         <v>1</v>
@@ -18563,7 +18560,7 @@
         <v>0.51</v>
       </c>
       <c r="EE114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="EO114">
         <v>18</v>
@@ -18571,19 +18568,19 @@
     </row>
     <row r="115" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B115" t="s">
+        <v>646</v>
+      </c>
+      <c r="C115" t="s">
         <v>647</v>
-      </c>
-      <c r="C115" t="s">
-        <v>648</v>
       </c>
       <c r="D115">
         <v>2021</v>
       </c>
       <c r="E115" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F115" t="s">
         <v>155</v>
@@ -18637,7 +18634,7 @@
         <v>0</v>
       </c>
       <c r="AU115" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AV115">
         <v>1</v>
@@ -18666,13 +18663,13 @@
     </row>
     <row r="116" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B116" t="s">
+        <v>650</v>
+      </c>
+      <c r="C116" t="s">
         <v>651</v>
-      </c>
-      <c r="C116" t="s">
-        <v>652</v>
       </c>
       <c r="D116">
         <v>2012</v>
@@ -18729,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="AU116" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AV116">
         <v>1</v>
@@ -18791,13 +18788,13 @@
     </row>
     <row r="117" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B117" t="s">
+        <v>653</v>
+      </c>
+      <c r="C117" t="s">
         <v>654</v>
-      </c>
-      <c r="C117" t="s">
-        <v>655</v>
       </c>
       <c r="D117">
         <v>2012</v>
@@ -18854,7 +18851,7 @@
         <v>0</v>
       </c>
       <c r="AU117" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AV117">
         <v>1</v>
@@ -18896,7 +18893,7 @@
         <v>169</v>
       </c>
       <c r="DP117" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="DU117">
         <v>97</v>
@@ -18905,18 +18902,18 @@
         <v>0.75</v>
       </c>
       <c r="EE117" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="118" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B118" t="s">
+        <v>658</v>
+      </c>
+      <c r="C118" t="s">
         <v>659</v>
-      </c>
-      <c r="C118" t="s">
-        <v>660</v>
       </c>
       <c r="D118">
         <v>2003</v>
@@ -18973,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="AU118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AV118">
         <v>0</v>
@@ -19012,13 +19009,13 @@
         <v>316</v>
       </c>
       <c r="DF118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="DK118" t="s">
         <v>169</v>
       </c>
       <c r="DP118" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="DU118">
         <v>212</v>
@@ -19026,19 +19023,19 @@
     </row>
     <row r="119" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B119" t="s">
+        <v>663</v>
+      </c>
+      <c r="C119" t="s">
         <v>664</v>
-      </c>
-      <c r="C119" t="s">
-        <v>665</v>
       </c>
       <c r="D119">
         <v>2022</v>
       </c>
       <c r="E119" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F119" t="s">
         <v>155</v>
@@ -19092,7 +19089,7 @@
         <v>0</v>
       </c>
       <c r="AU119" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AV119">
         <v>1</v>
@@ -19145,13 +19142,13 @@
     </row>
     <row r="120" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B120" t="s">
+        <v>667</v>
+      </c>
+      <c r="C120" t="s">
         <v>668</v>
-      </c>
-      <c r="C120" t="s">
-        <v>669</v>
       </c>
       <c r="D120">
         <v>2021</v>
@@ -19250,7 +19247,7 @@
         <v>169</v>
       </c>
       <c r="DP120" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="DU120">
         <v>554</v>
@@ -19258,19 +19255,19 @@
     </row>
     <row r="121" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B121" t="s">
+        <v>670</v>
+      </c>
+      <c r="C121" t="s">
         <v>671</v>
-      </c>
-      <c r="C121" t="s">
-        <v>672</v>
       </c>
       <c r="D121">
         <v>2008</v>
       </c>
       <c r="E121" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F121" t="s">
         <v>155</v>
@@ -19353,13 +19350,13 @@
     </row>
     <row r="122" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B122" t="s">
+        <v>673</v>
+      </c>
+      <c r="C122" t="s">
         <v>674</v>
-      </c>
-      <c r="C122" t="s">
-        <v>675</v>
       </c>
       <c r="D122">
         <v>2015</v>
@@ -19416,7 +19413,7 @@
         <v>0</v>
       </c>
       <c r="AU122" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AV122">
         <v>1</v>
@@ -19469,13 +19466,13 @@
     </row>
     <row r="123" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B123" t="s">
+        <v>676</v>
+      </c>
+      <c r="C123" t="s">
         <v>677</v>
-      </c>
-      <c r="C123" t="s">
-        <v>678</v>
       </c>
       <c r="D123">
         <v>2014</v>
@@ -19532,7 +19529,7 @@
         <v>0</v>
       </c>
       <c r="AU123" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AV123">
         <v>0</v>
@@ -19571,13 +19568,13 @@
         <v>167</v>
       </c>
       <c r="DF123" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="DK123" t="s">
         <v>169</v>
       </c>
       <c r="DP123" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="DU123">
         <v>7042</v>
@@ -19586,7 +19583,7 @@
         <v>0.53</v>
       </c>
       <c r="EE123" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="EJ123">
         <v>16.98</v>
@@ -19595,24 +19592,24 @@
         <v>16</v>
       </c>
       <c r="ET123" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="124" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B124" t="s">
+        <v>683</v>
+      </c>
+      <c r="C124" t="s">
         <v>684</v>
-      </c>
-      <c r="C124" t="s">
-        <v>685</v>
       </c>
       <c r="D124">
         <v>2016</v>
       </c>
       <c r="E124" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F124" t="s">
         <v>155</v>
@@ -19666,7 +19663,7 @@
         <v>0</v>
       </c>
       <c r="AU124" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AV124">
         <v>0</v>
@@ -19695,13 +19692,13 @@
     </row>
     <row r="125" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B125" t="s">
+        <v>687</v>
+      </c>
+      <c r="C125" t="s">
         <v>688</v>
-      </c>
-      <c r="C125" t="s">
-        <v>689</v>
       </c>
       <c r="D125">
         <v>2022</v>
@@ -19797,7 +19794,7 @@
         <v>167</v>
       </c>
       <c r="DK125" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="DP125" t="s">
         <v>206</v>
@@ -19809,7 +19806,7 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="EE125" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="EJ125">
         <v>3.4</v>
@@ -19823,13 +19820,13 @@
     </row>
     <row r="126" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B126" t="s">
+        <v>691</v>
+      </c>
+      <c r="C126" t="s">
         <v>692</v>
-      </c>
-      <c r="C126" t="s">
-        <v>693</v>
       </c>
       <c r="D126">
         <v>2020</v>
@@ -19886,7 +19883,7 @@
         <v>0</v>
       </c>
       <c r="AU126" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AV126">
         <v>1</v>
@@ -19915,13 +19912,13 @@
     </row>
     <row r="127" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B127" t="s">
+        <v>694</v>
+      </c>
+      <c r="C127" t="s">
         <v>695</v>
-      </c>
-      <c r="C127" t="s">
-        <v>696</v>
       </c>
       <c r="D127">
         <v>2023</v>
@@ -19978,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="AU127" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AV127">
         <v>0</v>
@@ -20007,13 +20004,13 @@
     </row>
     <row r="128" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B128" t="s">
+        <v>697</v>
+      </c>
+      <c r="C128" t="s">
         <v>698</v>
-      </c>
-      <c r="C128" t="s">
-        <v>699</v>
       </c>
       <c r="D128">
         <v>2021</v>
@@ -20070,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="AU128" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AV128">
         <v>1</v>
@@ -20109,13 +20106,13 @@
         <v>167</v>
       </c>
       <c r="DF128" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="DK128" t="s">
         <v>169</v>
       </c>
       <c r="DP128" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="DU128">
         <v>44</v>
@@ -20124,7 +20121,7 @@
         <v>0.66</v>
       </c>
       <c r="EE128" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="EJ128">
         <v>4.3</v>
@@ -20132,13 +20129,13 @@
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B129" t="s">
+        <v>703</v>
+      </c>
+      <c r="C129" t="s">
         <v>704</v>
-      </c>
-      <c r="C129" t="s">
-        <v>705</v>
       </c>
       <c r="D129">
         <v>2021</v>
@@ -20249,24 +20246,24 @@
         <v>0.58250000000000002</v>
       </c>
       <c r="EE129" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B130" t="s">
         <v>574</v>
       </c>
       <c r="C130" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D130">
         <v>2021</v>
       </c>
       <c r="E130" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F130" t="s">
         <v>155</v>
@@ -20379,13 +20376,13 @@
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B131" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C131" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D131">
         <v>2020</v>
@@ -20496,7 +20493,7 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="EE131" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="EJ131">
         <v>18.5</v>
@@ -20504,13 +20501,13 @@
     </row>
     <row r="132" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B132" t="s">
+        <v>710</v>
+      </c>
+      <c r="C132" t="s">
         <v>711</v>
-      </c>
-      <c r="C132" t="s">
-        <v>712</v>
       </c>
       <c r="D132">
         <v>2022</v>
@@ -20695,13 +20692,13 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B133" t="s">
+        <v>712</v>
+      </c>
+      <c r="C133" t="s">
         <v>713</v>
-      </c>
-      <c r="C133" t="s">
-        <v>714</v>
       </c>
       <c r="D133">
         <v>2008</v>
@@ -20812,7 +20809,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="EE133" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="EJ133">
         <v>4.3</v>
@@ -20821,24 +20818,24 @@
         <v>23</v>
       </c>
       <c r="ET133" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B134" t="s">
+        <v>716</v>
+      </c>
+      <c r="C134" t="s">
         <v>717</v>
-      </c>
-      <c r="C134" t="s">
-        <v>718</v>
       </c>
       <c r="D134">
         <v>2022</v>
       </c>
       <c r="E134" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F134" t="s">
         <v>155</v>
@@ -20853,7 +20850,7 @@
         <v>159</v>
       </c>
       <c r="V134" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA134" t="s">
         <v>161</v>
@@ -20892,7 +20889,7 @@
         <v>0</v>
       </c>
       <c r="AU134" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AV134">
         <v>1</v>
@@ -20921,13 +20918,13 @@
     </row>
     <row r="135" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B135" t="s">
+        <v>720</v>
+      </c>
+      <c r="C135" t="s">
         <v>721</v>
-      </c>
-      <c r="C135" t="s">
-        <v>722</v>
       </c>
       <c r="D135">
         <v>2020</v>
@@ -21040,13 +21037,13 @@
     </row>
     <row r="136" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B136" t="s">
+        <v>722</v>
+      </c>
+      <c r="C136" t="s">
         <v>723</v>
-      </c>
-      <c r="C136" t="s">
-        <v>724</v>
       </c>
       <c r="D136">
         <v>2019</v>
@@ -21100,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="AU136" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AV136">
         <v>1</v>
@@ -21130,7 +21127,7 @@
         <v>212</v>
       </c>
       <c r="BZ136" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="CL136">
         <v>12.9</v>
@@ -21145,7 +21142,7 @@
         <v>169</v>
       </c>
       <c r="DP136" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="DU136">
         <v>270</v>
@@ -21154,7 +21151,7 @@
         <v>0.97</v>
       </c>
       <c r="EE136" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="EO136">
         <v>50</v>
@@ -21165,13 +21162,13 @@
     </row>
     <row r="137" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B137" t="s">
+        <v>728</v>
+      </c>
+      <c r="C137" t="s">
         <v>729</v>
-      </c>
-      <c r="C137" t="s">
-        <v>730</v>
       </c>
       <c r="D137">
         <v>2010</v>
@@ -21284,13 +21281,13 @@
     </row>
     <row r="138" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B138" t="s">
+        <v>730</v>
+      </c>
+      <c r="C138" t="s">
         <v>731</v>
-      </c>
-      <c r="C138" t="s">
-        <v>732</v>
       </c>
       <c r="D138">
         <v>2018</v>
@@ -21347,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="AU138" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AV138">
         <v>0</v>
@@ -21401,7 +21398,7 @@
         <v>0.71</v>
       </c>
       <c r="EE138" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="EJ138">
         <v>1.29</v>
@@ -21415,13 +21412,13 @@
     </row>
     <row r="139" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B139" t="s">
+        <v>734</v>
+      </c>
+      <c r="C139" t="s">
         <v>735</v>
-      </c>
-      <c r="C139" t="s">
-        <v>736</v>
       </c>
       <c r="D139">
         <v>2004</v>
@@ -21478,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="AU139" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AV139">
         <v>1</v>
@@ -21517,7 +21514,7 @@
         <v>169</v>
       </c>
       <c r="DP139" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="DU139">
         <v>906</v>
@@ -21526,7 +21523,7 @@
         <v>0.52</v>
       </c>
       <c r="EE139" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="EJ139">
         <v>17.05</v>
@@ -21534,13 +21531,13 @@
     </row>
     <row r="140" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B140" t="s">
+        <v>739</v>
+      </c>
+      <c r="C140" t="s">
         <v>740</v>
-      </c>
-      <c r="C140" t="s">
-        <v>741</v>
       </c>
       <c r="D140">
         <v>2019</v>
@@ -21597,7 +21594,7 @@
         <v>0</v>
       </c>
       <c r="AU140" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AV140">
         <v>1</v>
@@ -21639,7 +21636,7 @@
         <v>169</v>
       </c>
       <c r="DP140" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="DU140">
         <v>434</v>
@@ -21653,19 +21650,19 @@
     </row>
     <row r="141" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B141" t="s">
+        <v>743</v>
+      </c>
+      <c r="C141" t="s">
         <v>744</v>
-      </c>
-      <c r="C141" t="s">
-        <v>745</v>
       </c>
       <c r="D141">
         <v>2022</v>
       </c>
       <c r="E141" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F141" t="s">
         <v>229</v>
@@ -21748,13 +21745,13 @@
     </row>
     <row r="142" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B142" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C142" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D142">
         <v>2021</v>
@@ -21808,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="AU142" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AV142">
         <v>1</v>
@@ -21837,13 +21834,13 @@
     </row>
     <row r="143" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B143" t="s">
+        <v>748</v>
+      </c>
+      <c r="C143" t="s">
         <v>749</v>
-      </c>
-      <c r="C143" t="s">
-        <v>750</v>
       </c>
       <c r="D143">
         <v>2021</v>
@@ -21953,13 +21950,13 @@
     </row>
     <row r="144" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B144" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C144" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D144">
         <v>2013</v>
@@ -22016,7 +22013,7 @@
         <v>0</v>
       </c>
       <c r="AU144" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AV144">
         <v>0</v>
@@ -22045,13 +22042,13 @@
     </row>
     <row r="145" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B145" t="s">
+        <v>752</v>
+      </c>
+      <c r="C145" t="s">
         <v>753</v>
-      </c>
-      <c r="C145" t="s">
-        <v>754</v>
       </c>
       <c r="D145">
         <v>2012</v>
@@ -22108,7 +22105,7 @@
         <v>0</v>
       </c>
       <c r="AU145" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AV145">
         <v>1</v>
@@ -22137,13 +22134,13 @@
     </row>
     <row r="146" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B146" t="s">
         <v>574</v>
       </c>
       <c r="C146" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D146">
         <v>2020</v>
@@ -22265,19 +22262,19 @@
     </row>
     <row r="147" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B147" t="s">
+        <v>756</v>
+      </c>
+      <c r="C147" t="s">
         <v>757</v>
-      </c>
-      <c r="C147" t="s">
-        <v>758</v>
       </c>
       <c r="D147">
         <v>2004</v>
       </c>
       <c r="E147" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F147" t="s">
         <v>155</v>
@@ -22373,7 +22370,7 @@
         <v>231</v>
       </c>
       <c r="DP147" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="DU147">
         <v>416</v>
@@ -22385,18 +22382,18 @@
         <v>14</v>
       </c>
       <c r="ET147" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="148" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B148" t="s">
+        <v>761</v>
+      </c>
+      <c r="C148" t="s">
         <v>762</v>
-      </c>
-      <c r="C148" t="s">
-        <v>763</v>
       </c>
       <c r="D148">
         <v>2022</v>
@@ -22453,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="AU148" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AV148">
         <v>0</v>
@@ -22482,13 +22479,13 @@
     </row>
     <row r="149" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B149" t="s">
+        <v>764</v>
+      </c>
+      <c r="C149" t="s">
         <v>765</v>
-      </c>
-      <c r="C149" t="s">
-        <v>766</v>
       </c>
       <c r="D149">
         <v>2014</v>
@@ -22506,7 +22503,7 @@
         <v>159</v>
       </c>
       <c r="V149" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AA149" t="s">
         <v>160</v>
@@ -22545,7 +22542,7 @@
         <v>0</v>
       </c>
       <c r="AU149" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AV149">
         <v>0</v>
@@ -22584,7 +22581,7 @@
         <v>167</v>
       </c>
       <c r="DF149" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="DK149" t="s">
         <v>169</v>
@@ -22599,24 +22596,24 @@
         <v>0.6</v>
       </c>
       <c r="EE149" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="150" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B150" t="s">
+        <v>770</v>
+      </c>
+      <c r="C150" t="s">
         <v>771</v>
-      </c>
-      <c r="C150" t="s">
-        <v>772</v>
       </c>
       <c r="D150">
         <v>2021</v>
       </c>
       <c r="E150" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F150" t="s">
         <v>155</v>
@@ -22714,13 +22711,13 @@
     </row>
     <row r="151" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B151" t="s">
         <v>544</v>
       </c>
       <c r="C151" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D151">
         <v>2022</v>
@@ -22816,7 +22813,7 @@
         <v>167</v>
       </c>
       <c r="DF151" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="DK151" t="s">
         <v>169</v>
@@ -22833,19 +22830,19 @@
     </row>
     <row r="152" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B152" t="s">
+        <v>775</v>
+      </c>
+      <c r="C152" t="s">
         <v>776</v>
-      </c>
-      <c r="C152" t="s">
-        <v>777</v>
       </c>
       <c r="D152">
         <v>2012</v>
       </c>
       <c r="E152" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F152" t="s">
         <v>155</v>
@@ -22899,7 +22896,7 @@
         <v>0</v>
       </c>
       <c r="AU152" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AV152">
         <v>1</v>
@@ -22950,18 +22947,18 @@
         <v>18</v>
       </c>
       <c r="ET152" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="153" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B153" t="s">
+        <v>780</v>
+      </c>
+      <c r="C153" t="s">
         <v>781</v>
-      </c>
-      <c r="C153" t="s">
-        <v>782</v>
       </c>
       <c r="D153">
         <v>2010</v>
@@ -23069,7 +23066,7 @@
         <v>0.53</v>
       </c>
       <c r="EE153" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="EJ153">
         <v>14.1</v>
@@ -23077,19 +23074,19 @@
     </row>
     <row r="154" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B154" t="s">
+        <v>783</v>
+      </c>
+      <c r="C154" t="s">
         <v>784</v>
-      </c>
-      <c r="C154" t="s">
-        <v>785</v>
       </c>
       <c r="D154">
         <v>2017</v>
       </c>
       <c r="E154" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F154" t="s">
         <v>155</v>
@@ -23143,7 +23140,7 @@
         <v>0</v>
       </c>
       <c r="AU154" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AV154">
         <v>0</v>
@@ -23172,13 +23169,13 @@
     </row>
     <row r="155" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B155" t="s">
+        <v>787</v>
+      </c>
+      <c r="C155" t="s">
         <v>788</v>
-      </c>
-      <c r="C155" t="s">
-        <v>789</v>
       </c>
       <c r="D155">
         <v>2021</v>
@@ -23285,19 +23282,19 @@
     </row>
     <row r="156" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B156" t="s">
+        <v>789</v>
+      </c>
+      <c r="C156" t="s">
         <v>790</v>
-      </c>
-      <c r="C156" t="s">
-        <v>791</v>
       </c>
       <c r="D156">
         <v>2022</v>
       </c>
       <c r="E156" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F156" t="s">
         <v>229</v>
@@ -23390,7 +23387,7 @@
         <v>169</v>
       </c>
       <c r="DP156" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="DU156">
         <v>3402</v>
@@ -23398,19 +23395,19 @@
     </row>
     <row r="157" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B157" t="s">
+        <v>793</v>
+      </c>
+      <c r="C157" t="s">
         <v>794</v>
-      </c>
-      <c r="C157" t="s">
-        <v>795</v>
       </c>
       <c r="D157">
         <v>2018</v>
       </c>
       <c r="E157" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F157" t="s">
         <v>229</v>
@@ -23464,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="AU157" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AV157">
         <v>1</v>
@@ -23493,13 +23490,13 @@
     </row>
     <row r="158" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B158" t="s">
+        <v>797</v>
+      </c>
+      <c r="C158" t="s">
         <v>798</v>
-      </c>
-      <c r="C158" t="s">
-        <v>799</v>
       </c>
       <c r="D158">
         <v>2010</v>
@@ -23610,7 +23607,7 @@
         <v>0.53</v>
       </c>
       <c r="EE158" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="EJ158">
         <v>0.4</v>
@@ -23618,19 +23615,19 @@
     </row>
     <row r="159" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B159" t="s">
+        <v>799</v>
+      </c>
+      <c r="C159" t="s">
         <v>800</v>
-      </c>
-      <c r="C159" t="s">
-        <v>801</v>
       </c>
       <c r="D159">
         <v>2022</v>
       </c>
       <c r="E159" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F159" t="s">
         <v>155</v>
@@ -23684,7 +23681,7 @@
         <v>0</v>
       </c>
       <c r="AU159" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AV159">
         <v>1</v>
@@ -23713,13 +23710,13 @@
     </row>
     <row r="160" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B160" t="s">
+        <v>803</v>
+      </c>
+      <c r="C160" t="s">
         <v>804</v>
-      </c>
-      <c r="C160" t="s">
-        <v>805</v>
       </c>
       <c r="D160">
         <v>2023</v>
@@ -23808,13 +23805,13 @@
     </row>
     <row r="161" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B161" t="s">
         <v>246</v>
       </c>
       <c r="C161" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D161">
         <v>2020</v>
@@ -23874,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="AU161" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AV161">
         <v>1</v>
@@ -23903,13 +23900,13 @@
     </row>
     <row r="162" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B162" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C162" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D162">
         <v>2020</v>
@@ -23999,7 +23996,7 @@
         <v>212</v>
       </c>
       <c r="BM162" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="CL162">
         <v>14</v>
@@ -24014,7 +24011,7 @@
         <v>169</v>
       </c>
       <c r="DP162" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="DU162">
         <v>28</v>
@@ -24023,7 +24020,7 @@
         <v>0.64</v>
       </c>
       <c r="EE162" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="EJ162">
         <v>6.2</v>
@@ -24031,13 +24028,13 @@
     </row>
     <row r="163" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B163" t="s">
+        <v>809</v>
+      </c>
+      <c r="C163" t="s">
         <v>810</v>
-      </c>
-      <c r="C163" t="s">
-        <v>811</v>
       </c>
       <c r="D163">
         <v>2013</v>
@@ -24151,18 +24148,18 @@
         <v>34</v>
       </c>
       <c r="ET163" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="164" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B164" t="s">
+        <v>812</v>
+      </c>
+      <c r="C164" t="s">
         <v>813</v>
-      </c>
-      <c r="C164" t="s">
-        <v>814</v>
       </c>
       <c r="D164">
         <v>2016</v>
@@ -24219,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AU164" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AV164">
         <v>1</v>
@@ -24252,7 +24249,7 @@
         <v>375</v>
       </c>
       <c r="BN164" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="CQ164">
         <v>730</v>
@@ -24273,7 +24270,7 @@
         <v>0.42</v>
       </c>
       <c r="EE164" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="EJ164">
         <v>15</v>
@@ -24281,13 +24278,13 @@
     </row>
     <row r="165" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B165" t="s">
+        <v>816</v>
+      </c>
+      <c r="C165" t="s">
         <v>817</v>
-      </c>
-      <c r="C165" t="s">
-        <v>818</v>
       </c>
       <c r="D165">
         <v>2005</v>
@@ -24398,7 +24395,7 @@
         <v>0.44</v>
       </c>
       <c r="EE165" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="EJ165">
         <v>13.1</v>
@@ -24406,13 +24403,13 @@
     </row>
     <row r="166" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B166" t="s">
+        <v>819</v>
+      </c>
+      <c r="C166" t="s">
         <v>820</v>
-      </c>
-      <c r="C166" t="s">
-        <v>821</v>
       </c>
       <c r="D166">
         <v>2018</v>
@@ -24498,19 +24495,19 @@
     </row>
     <row r="167" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B167" t="s">
+        <v>821</v>
+      </c>
+      <c r="C167" t="s">
         <v>822</v>
-      </c>
-      <c r="C167" t="s">
-        <v>823</v>
       </c>
       <c r="D167">
         <v>2018</v>
       </c>
       <c r="E167" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F167" t="s">
         <v>155</v>
@@ -24564,7 +24561,7 @@
         <v>0</v>
       </c>
       <c r="AU167" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AV167">
         <v>1</v>
@@ -24593,13 +24590,13 @@
     </row>
     <row r="168" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B168" t="s">
+        <v>825</v>
+      </c>
+      <c r="C168" t="s">
         <v>826</v>
-      </c>
-      <c r="C168" t="s">
-        <v>827</v>
       </c>
       <c r="D168">
         <v>2022</v>
@@ -24659,7 +24656,7 @@
         <v>0</v>
       </c>
       <c r="AU168" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AV168">
         <v>1</v>
@@ -24698,7 +24695,7 @@
         <v>167</v>
       </c>
       <c r="DF168" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="DK168" t="s">
         <v>169</v>
@@ -24713,24 +24710,24 @@
         <v>0</v>
       </c>
       <c r="EE168" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="EO168">
         <v>24</v>
       </c>
       <c r="ET168" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="169" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B169" t="s">
+        <v>830</v>
+      </c>
+      <c r="C169" t="s">
         <v>831</v>
-      </c>
-      <c r="C169" t="s">
-        <v>832</v>
       </c>
       <c r="D169">
         <v>2004</v>
@@ -24816,13 +24813,13 @@
     </row>
     <row r="170" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B170" t="s">
+        <v>832</v>
+      </c>
+      <c r="C170" t="s">
         <v>833</v>
-      </c>
-      <c r="C170" t="s">
-        <v>834</v>
       </c>
       <c r="D170">
         <v>2022</v>
@@ -24908,13 +24905,13 @@
     </row>
     <row r="171" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B171" t="s">
+        <v>834</v>
+      </c>
+      <c r="C171" t="s">
         <v>835</v>
-      </c>
-      <c r="C171" t="s">
-        <v>836</v>
       </c>
       <c r="D171">
         <v>2022</v>
@@ -25001,7 +24998,7 @@
         <v>212</v>
       </c>
       <c r="BM171" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="CL171">
         <v>28</v>
@@ -25024,13 +25021,13 @@
     </row>
     <row r="172" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B172" t="s">
         <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D172">
         <v>2021</v>
@@ -25051,7 +25048,7 @@
         <v>176</v>
       </c>
       <c r="AA172" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF172" t="s">
         <v>162</v>
@@ -25087,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="AU172" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AV172">
         <v>1</v>
@@ -25116,19 +25113,19 @@
     </row>
     <row r="173" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B173" t="s">
+        <v>840</v>
+      </c>
+      <c r="C173" t="s">
         <v>841</v>
-      </c>
-      <c r="C173" t="s">
-        <v>842</v>
       </c>
       <c r="D173">
         <v>2022</v>
       </c>
       <c r="E173" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F173" t="s">
         <v>229</v>
@@ -25211,13 +25208,13 @@
     </row>
     <row r="174" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B174" t="s">
+        <v>843</v>
+      </c>
+      <c r="C174" t="s">
         <v>844</v>
-      </c>
-      <c r="C174" t="s">
-        <v>845</v>
       </c>
       <c r="D174">
         <v>2012</v>
@@ -25274,7 +25271,7 @@
         <v>0</v>
       </c>
       <c r="AU174" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AV174">
         <v>0</v>
@@ -25303,19 +25300,19 @@
     </row>
     <row r="175" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B175" t="s">
+        <v>846</v>
+      </c>
+      <c r="C175" t="s">
         <v>847</v>
-      </c>
-      <c r="C175" t="s">
-        <v>848</v>
       </c>
       <c r="D175">
         <v>2021</v>
       </c>
       <c r="E175" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F175" t="s">
         <v>155</v>
@@ -25369,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="AU175" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AV175">
         <v>1</v>
@@ -25420,7 +25417,7 @@
         <v>0.47</v>
       </c>
       <c r="EE175" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="EJ175">
         <v>12.39</v>
@@ -25429,18 +25426,18 @@
         <v>18</v>
       </c>
       <c r="ET175" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="176" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B176" t="s">
+        <v>852</v>
+      </c>
+      <c r="C176" t="s">
         <v>853</v>
-      </c>
-      <c r="C176" t="s">
-        <v>854</v>
       </c>
       <c r="D176">
         <v>2022</v>
@@ -25551,7 +25548,7 @@
         <v>0.66</v>
       </c>
       <c r="EE176" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="EJ176">
         <v>8.14</v>
@@ -25559,13 +25556,13 @@
     </row>
     <row r="177" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B177" t="s">
+        <v>855</v>
+      </c>
+      <c r="C177" t="s">
         <v>856</v>
-      </c>
-      <c r="C177" t="s">
-        <v>857</v>
       </c>
       <c r="D177">
         <v>2018</v>
@@ -25619,7 +25616,7 @@
         <v>0</v>
       </c>
       <c r="AU177" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AV177">
         <v>1</v>
@@ -25649,10 +25646,10 @@
         <v>212</v>
       </c>
       <c r="BM177" t="s">
+        <v>858</v>
+      </c>
+      <c r="BN177" t="s">
         <v>859</v>
-      </c>
-      <c r="BN177" t="s">
-        <v>860</v>
       </c>
       <c r="CL177">
         <v>14</v>
@@ -25661,13 +25658,13 @@
         <v>167</v>
       </c>
       <c r="DF177" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="DK177" t="s">
         <v>231</v>
       </c>
       <c r="DP177" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="DU177">
         <v>54</v>
@@ -25684,19 +25681,19 @@
     </row>
     <row r="178" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B178" t="s">
+        <v>862</v>
+      </c>
+      <c r="C178" t="s">
         <v>863</v>
-      </c>
-      <c r="C178" t="s">
-        <v>864</v>
       </c>
       <c r="D178">
         <v>2007</v>
       </c>
       <c r="E178" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F178" t="s">
         <v>155</v>
@@ -25750,7 +25747,7 @@
         <v>0</v>
       </c>
       <c r="AU178" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AV178">
         <v>1</v>
@@ -25792,7 +25789,7 @@
         <v>169</v>
       </c>
       <c r="DP178" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="DU178">
         <v>2705</v>
@@ -25800,13 +25797,13 @@
     </row>
     <row r="179" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B179" t="s">
+        <v>867</v>
+      </c>
+      <c r="C179" t="s">
         <v>868</v>
-      </c>
-      <c r="C179" t="s">
-        <v>869</v>
       </c>
       <c r="D179">
         <v>2003</v>
@@ -25860,7 +25857,7 @@
         <v>0</v>
       </c>
       <c r="AU179" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AV179">
         <v>0</v>
@@ -25889,13 +25886,13 @@
     </row>
     <row r="180" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B180" t="s">
+        <v>870</v>
+      </c>
+      <c r="C180" t="s">
         <v>871</v>
-      </c>
-      <c r="C180" t="s">
-        <v>872</v>
       </c>
       <c r="D180">
         <v>2011</v>
@@ -25961,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="AU180" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AV180">
         <v>1</v>
@@ -25994,7 +25991,7 @@
         <v>212</v>
       </c>
       <c r="BM180" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="BN180" t="s">
         <v>501</v>
@@ -26027,18 +26024,18 @@
         <v>0.49</v>
       </c>
       <c r="EE180" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="181" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B181" t="s">
+        <v>875</v>
+      </c>
+      <c r="C181" t="s">
         <v>876</v>
-      </c>
-      <c r="C181" t="s">
-        <v>877</v>
       </c>
       <c r="D181">
         <v>2018</v>
@@ -26095,7 +26092,7 @@
         <v>0</v>
       </c>
       <c r="AU181" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AV181">
         <v>0</v>
@@ -26124,13 +26121,13 @@
     </row>
     <row r="182" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B182" t="s">
+        <v>878</v>
+      </c>
+      <c r="C182" t="s">
         <v>879</v>
-      </c>
-      <c r="C182" t="s">
-        <v>880</v>
       </c>
       <c r="D182">
         <v>2021</v>
@@ -26148,7 +26145,7 @@
         <v>159</v>
       </c>
       <c r="V182" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AA182" t="s">
         <v>160</v>
@@ -26246,13 +26243,13 @@
     </row>
     <row r="183" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B183" t="s">
+        <v>880</v>
+      </c>
+      <c r="C183" t="s">
         <v>881</v>
-      </c>
-      <c r="C183" t="s">
-        <v>882</v>
       </c>
       <c r="D183">
         <v>2016</v>
@@ -26309,7 +26306,7 @@
         <v>0</v>
       </c>
       <c r="AU183" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AV183">
         <v>1</v>
@@ -26363,7 +26360,7 @@
         <v>0.12</v>
       </c>
       <c r="EE183" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="EJ183">
         <v>10.039999999999999</v>
@@ -26371,19 +26368,19 @@
     </row>
     <row r="184" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B184" t="s">
         <v>428</v>
       </c>
       <c r="C184" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D184">
         <v>2021</v>
       </c>
       <c r="E184" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F184" t="s">
         <v>155</v>
@@ -26434,7 +26431,7 @@
         <v>0</v>
       </c>
       <c r="AU184" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AV184">
         <v>1</v>
@@ -26485,18 +26482,18 @@
         <v>0.52</v>
       </c>
       <c r="EE184" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="185" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B185" t="s">
+        <v>888</v>
+      </c>
+      <c r="C185" t="s">
         <v>889</v>
-      </c>
-      <c r="C185" t="s">
-        <v>890</v>
       </c>
       <c r="D185">
         <v>2016</v>
@@ -26550,7 +26547,7 @@
         <v>0</v>
       </c>
       <c r="AU185" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AV185">
         <v>1</v>
@@ -26606,13 +26603,13 @@
     </row>
     <row r="186" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B186" t="s">
+        <v>891</v>
+      </c>
+      <c r="C186" t="s">
         <v>892</v>
-      </c>
-      <c r="C186" t="s">
-        <v>893</v>
       </c>
       <c r="D186">
         <v>2016</v>
@@ -26669,7 +26666,7 @@
         <v>0</v>
       </c>
       <c r="AU186" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AV186">
         <v>1</v>
@@ -26711,7 +26708,7 @@
         <v>354</v>
       </c>
       <c r="DK186" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="DP186" t="s">
         <v>206</v>
@@ -26723,7 +26720,7 @@
         <v>1</v>
       </c>
       <c r="EE186" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="EJ186">
         <v>2.2000000000000002</v>
@@ -26732,18 +26729,18 @@
         <v>13</v>
       </c>
       <c r="ET186" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="187" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B187" t="s">
+        <v>896</v>
+      </c>
+      <c r="C187" t="s">
         <v>897</v>
-      </c>
-      <c r="C187" t="s">
-        <v>898</v>
       </c>
       <c r="D187">
         <v>2010</v>
@@ -26761,7 +26758,7 @@
         <v>159</v>
       </c>
       <c r="V187" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA187" t="s">
         <v>160</v>
@@ -26851,7 +26848,7 @@
         <v>883</v>
       </c>
       <c r="EE187" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="EJ187">
         <v>1.1000000000000001</v>
@@ -26865,13 +26862,13 @@
     </row>
     <row r="188" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B188" t="s">
+        <v>899</v>
+      </c>
+      <c r="C188" t="s">
         <v>900</v>
-      </c>
-      <c r="C188" t="s">
-        <v>901</v>
       </c>
       <c r="D188">
         <v>2005</v>
@@ -26925,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="AU188" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AV188">
         <v>0</v>
@@ -26976,7 +26973,7 @@
         <v>0.53</v>
       </c>
       <c r="EE188" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="EJ188">
         <v>13.49</v>
@@ -26984,13 +26981,13 @@
     </row>
     <row r="189" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B189" t="s">
+        <v>903</v>
+      </c>
+      <c r="C189" t="s">
         <v>904</v>
-      </c>
-      <c r="C189" t="s">
-        <v>905</v>
       </c>
       <c r="D189">
         <v>2013</v>
@@ -27095,7 +27092,7 @@
         <v>0.32</v>
       </c>
       <c r="EE189" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="EJ189">
         <v>15.02</v>
@@ -27103,19 +27100,19 @@
     </row>
     <row r="190" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B190" t="s">
+        <v>906</v>
+      </c>
+      <c r="C190" t="s">
         <v>907</v>
-      </c>
-      <c r="C190" t="s">
-        <v>908</v>
       </c>
       <c r="D190">
         <v>2008</v>
       </c>
       <c r="E190" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F190" t="s">
         <v>155</v>
@@ -27166,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="AU190" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AV190">
         <v>1</v>
@@ -27217,7 +27214,7 @@
         <v>0.51</v>
       </c>
       <c r="EE190" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="EJ190">
         <v>0.61</v>
@@ -27225,19 +27222,19 @@
     </row>
     <row r="191" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B191" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C191" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D191">
         <v>2022</v>
       </c>
       <c r="E191" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F191" t="s">
         <v>155</v>
@@ -27291,7 +27288,7 @@
         <v>0</v>
       </c>
       <c r="AU191" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AV191">
         <v>1</v>
@@ -27320,13 +27317,13 @@
     </row>
     <row r="192" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B192" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C192" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D192">
         <v>2015</v>
@@ -27383,7 +27380,7 @@
         <v>0</v>
       </c>
       <c r="AU192" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AV192">
         <v>0</v>
@@ -27433,13 +27430,13 @@
     </row>
     <row r="193" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B193" t="s">
+        <v>915</v>
+      </c>
+      <c r="C193" t="s">
         <v>916</v>
-      </c>
-      <c r="C193" t="s">
-        <v>917</v>
       </c>
       <c r="D193">
         <v>2023</v>
@@ -27558,19 +27555,19 @@
     </row>
     <row r="194" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B194" t="s">
+        <v>917</v>
+      </c>
+      <c r="C194" t="s">
         <v>918</v>
-      </c>
-      <c r="C194" t="s">
-        <v>919</v>
       </c>
       <c r="D194">
         <v>2018</v>
       </c>
       <c r="E194" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F194" t="s">
         <v>155</v>
@@ -27624,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="AU194" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AV194">
         <v>0</v>
@@ -27660,7 +27657,7 @@
         <v>324</v>
       </c>
       <c r="BO194" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="BP194" t="s">
         <v>540</v>
@@ -27672,7 +27669,7 @@
         <v>167</v>
       </c>
       <c r="DF194" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="DK194" t="s">
         <v>169</v>
@@ -27687,7 +27684,7 @@
         <v>0.52</v>
       </c>
       <c r="EE194" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="EJ194">
         <v>15.5</v>
@@ -27701,13 +27698,13 @@
     </row>
     <row r="195" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B195" t="s">
+        <v>923</v>
+      </c>
+      <c r="C195" t="s">
         <v>924</v>
-      </c>
-      <c r="C195" t="s">
-        <v>925</v>
       </c>
       <c r="D195">
         <v>2020</v>
@@ -27725,7 +27722,7 @@
         <v>159</v>
       </c>
       <c r="AA195" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AF195" t="s">
         <v>162</v>
@@ -27761,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="AU195" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AV195">
         <v>1</v>
@@ -27790,13 +27787,13 @@
     </row>
     <row r="196" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B196" t="s">
+        <v>927</v>
+      </c>
+      <c r="C196" t="s">
         <v>928</v>
-      </c>
-      <c r="C196" t="s">
-        <v>929</v>
       </c>
       <c r="D196">
         <v>2005</v>
@@ -27924,19 +27921,19 @@
     </row>
     <row r="197" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B197" t="s">
+        <v>929</v>
+      </c>
+      <c r="C197" t="s">
         <v>930</v>
-      </c>
-      <c r="C197" t="s">
-        <v>931</v>
       </c>
       <c r="D197">
         <v>2016</v>
       </c>
       <c r="E197" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F197" t="s">
         <v>155</v>
@@ -28019,13 +28016,13 @@
     </row>
     <row r="198" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B198" t="s">
         <v>487</v>
       </c>
       <c r="C198" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D198">
         <v>2013</v>
@@ -28082,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="AU198" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AV198">
         <v>1</v>
@@ -28112,10 +28109,10 @@
         <v>323</v>
       </c>
       <c r="BM198" t="s">
+        <v>934</v>
+      </c>
+      <c r="BN198" t="s">
         <v>935</v>
-      </c>
-      <c r="BN198" t="s">
-        <v>936</v>
       </c>
       <c r="CL198">
         <v>365</v>
@@ -28135,13 +28132,13 @@
     </row>
     <row r="199" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B199" t="s">
+        <v>936</v>
+      </c>
+      <c r="C199" t="s">
         <v>937</v>
-      </c>
-      <c r="C199" t="s">
-        <v>938</v>
       </c>
       <c r="D199">
         <v>2004</v>
@@ -28153,7 +28150,7 @@
         <v>365</v>
       </c>
       <c r="L199" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q199" t="s">
         <v>159</v>
@@ -28231,7 +28228,7 @@
         <v>271</v>
       </c>
       <c r="BN199" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="CL199">
         <v>28</v>
@@ -28243,7 +28240,7 @@
         <v>237</v>
       </c>
       <c r="DP199" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="DU199">
         <v>113</v>
@@ -28252,7 +28249,7 @@
         <v>0.33</v>
       </c>
       <c r="EE199" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="EJ199">
         <v>1</v>
@@ -28261,18 +28258,18 @@
         <v>9</v>
       </c>
       <c r="ET199" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="200" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B200" t="s">
         <v>525</v>
       </c>
       <c r="C200" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D200">
         <v>2021</v>
@@ -28329,7 +28326,7 @@
         <v>0</v>
       </c>
       <c r="AU200" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AV200">
         <v>1</v>
@@ -28379,13 +28376,13 @@
     </row>
     <row r="201" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B201" t="s">
+        <v>943</v>
+      </c>
+      <c r="C201" t="s">
         <v>944</v>
-      </c>
-      <c r="C201" t="s">
-        <v>945</v>
       </c>
       <c r="D201">
         <v>2004</v>
@@ -28439,7 +28436,7 @@
         <v>0</v>
       </c>
       <c r="AU201" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AV201">
         <v>1</v>
@@ -28468,13 +28465,13 @@
     </row>
     <row r="202" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B202" t="s">
+        <v>946</v>
+      </c>
+      <c r="C202" t="s">
         <v>947</v>
-      </c>
-      <c r="C202" t="s">
-        <v>948</v>
       </c>
       <c r="D202">
         <v>2016</v>
@@ -28636,7 +28633,7 @@
         <v>604</v>
       </c>
       <c r="BV202" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="BW202" t="s">
         <v>375</v>
@@ -28645,7 +28642,7 @@
         <v>438</v>
       </c>
       <c r="BY202" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="CL202">
         <v>360</v>
@@ -28738,7 +28735,7 @@
         <v>0.51</v>
       </c>
       <c r="EE202" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="EF202">
         <v>61.8</v>
@@ -28770,13 +28767,13 @@
     </row>
     <row r="203" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B203" t="s">
+        <v>951</v>
+      </c>
+      <c r="C203" t="s">
         <v>952</v>
-      </c>
-      <c r="C203" t="s">
-        <v>953</v>
       </c>
       <c r="D203">
         <v>2021</v>
@@ -28859,13 +28856,13 @@
     </row>
     <row r="204" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B204" t="s">
+        <v>953</v>
+      </c>
+      <c r="C204" t="s">
         <v>954</v>
-      </c>
-      <c r="C204" t="s">
-        <v>955</v>
       </c>
       <c r="D204">
         <v>2021</v>
@@ -28883,7 +28880,7 @@
         <v>159</v>
       </c>
       <c r="V204" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA204" t="s">
         <v>160</v>
@@ -28922,7 +28919,7 @@
         <v>0</v>
       </c>
       <c r="AU204" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AV204">
         <v>1</v>
@@ -28978,13 +28975,13 @@
     </row>
     <row r="205" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B205" t="s">
+        <v>957</v>
+      </c>
+      <c r="C205" t="s">
         <v>958</v>
-      </c>
-      <c r="C205" t="s">
-        <v>959</v>
       </c>
       <c r="D205">
         <v>2020</v>
@@ -29083,7 +29080,7 @@
         <v>169</v>
       </c>
       <c r="DP205" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="DU205">
         <v>90567</v>
@@ -29097,13 +29094,13 @@
     </row>
     <row r="206" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B206" t="s">
+        <v>959</v>
+      </c>
+      <c r="C206" t="s">
         <v>960</v>
-      </c>
-      <c r="C206" t="s">
-        <v>961</v>
       </c>
       <c r="D206">
         <v>2003</v>
@@ -29187,7 +29184,7 @@
         <v>212</v>
       </c>
       <c r="BM206" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="CL206">
         <v>14</v>
@@ -29205,7 +29202,7 @@
         <v>85</v>
       </c>
       <c r="EE206" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="EJ206">
         <v>5.2</v>
@@ -29214,24 +29211,24 @@
         <v>60</v>
       </c>
       <c r="ET206" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="207" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B207" t="s">
+        <v>963</v>
+      </c>
+      <c r="C207" t="s">
         <v>964</v>
-      </c>
-      <c r="C207" t="s">
-        <v>965</v>
       </c>
       <c r="D207">
         <v>2022</v>
       </c>
       <c r="E207" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F207" t="s">
         <v>155</v>
@@ -29330,7 +29327,7 @@
         <v>0.46</v>
       </c>
       <c r="EE207" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="EJ207">
         <v>6.4</v>
@@ -29344,19 +29341,19 @@
     </row>
     <row r="208" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B208" t="s">
         <v>525</v>
       </c>
       <c r="C208" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D208">
         <v>2022</v>
       </c>
       <c r="E208" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F208" t="s">
         <v>155</v>
@@ -29410,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="AU208" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AV208">
         <v>1</v>
@@ -29440,19 +29437,19 @@
         <v>323</v>
       </c>
       <c r="BM208" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="BN208" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="BO208" t="s">
         <v>324</v>
       </c>
       <c r="BP208" t="s">
+        <v>970</v>
+      </c>
+      <c r="BQ208" t="s">
         <v>971</v>
-      </c>
-      <c r="BQ208" t="s">
-        <v>972</v>
       </c>
       <c r="BR208" t="s">
         <v>604</v>
@@ -29467,7 +29464,7 @@
         <v>169</v>
       </c>
       <c r="DP208" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="DU208">
         <v>901</v>
@@ -29484,13 +29481,13 @@
     </row>
     <row r="209" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B209" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C209" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D209">
         <v>2021</v>
@@ -29562,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="AU209" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AV209">
         <v>0</v>
@@ -29646,7 +29643,7 @@
         <v>0.46</v>
       </c>
       <c r="EE209" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="EF209">
         <v>59.7</v>
@@ -29654,13 +29651,13 @@
     </row>
     <row r="210" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B210" t="s">
+        <v>976</v>
+      </c>
+      <c r="C210" t="s">
         <v>977</v>
-      </c>
-      <c r="C210" t="s">
-        <v>978</v>
       </c>
       <c r="D210">
         <v>2019</v>
@@ -29678,7 +29675,7 @@
         <v>159</v>
       </c>
       <c r="V210" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AA210" t="s">
         <v>160</v>
@@ -29747,10 +29744,10 @@
         <v>212</v>
       </c>
       <c r="BZ210" t="s">
+        <v>978</v>
+      </c>
+      <c r="CA210" t="s">
         <v>979</v>
-      </c>
-      <c r="CA210" t="s">
-        <v>980</v>
       </c>
       <c r="CL210">
         <v>28</v>
@@ -29765,7 +29762,7 @@
         <v>169</v>
       </c>
       <c r="DP210" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="DU210">
         <v>469</v>
@@ -29776,19 +29773,19 @@
     </row>
     <row r="211" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B211" t="s">
+        <v>981</v>
+      </c>
+      <c r="C211" t="s">
         <v>982</v>
-      </c>
-      <c r="C211" t="s">
-        <v>983</v>
       </c>
       <c r="D211">
         <v>2015</v>
       </c>
       <c r="E211" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F211" t="s">
         <v>155</v>
@@ -29842,7 +29839,7 @@
         <v>0</v>
       </c>
       <c r="AU211" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AV211">
         <v>1</v>
@@ -29871,13 +29868,13 @@
     </row>
     <row r="212" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B212" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C212" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D212">
         <v>2022</v>
@@ -29913,7 +29910,7 @@
         <v>159</v>
       </c>
       <c r="V212" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="X212">
         <v>11</v>
@@ -29967,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="AU212" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AV212">
         <v>0</v>
@@ -30081,7 +30078,7 @@
         <v>0.44</v>
       </c>
       <c r="EE212" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="EF212">
         <v>63.3</v>
@@ -30092,13 +30089,13 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B213" t="s">
+        <v>988</v>
+      </c>
+      <c r="C213" t="s">
         <v>989</v>
-      </c>
-      <c r="C213" t="s">
-        <v>990</v>
       </c>
       <c r="D213">
         <v>2012</v>
@@ -30155,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="AU213" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AV213">
         <v>0</v>
@@ -30205,19 +30202,19 @@
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B214" t="s">
+        <v>990</v>
+      </c>
+      <c r="C214" t="s">
         <v>991</v>
-      </c>
-      <c r="C214" t="s">
-        <v>992</v>
       </c>
       <c r="D214">
         <v>2021</v>
       </c>
       <c r="E214" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F214" t="s">
         <v>229</v>
@@ -30319,7 +30316,7 @@
         <v>6281</v>
       </c>
       <c r="EE214" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="EJ214">
         <v>15.52</v>
@@ -30327,13 +30324,13 @@
     </row>
     <row r="215" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B215" t="s">
+        <v>994</v>
+      </c>
+      <c r="C215" t="s">
         <v>995</v>
-      </c>
-      <c r="C215" t="s">
-        <v>996</v>
       </c>
       <c r="D215">
         <v>2018</v>
@@ -30390,7 +30387,7 @@
         <v>0</v>
       </c>
       <c r="AU215" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AV215">
         <v>0</v>
@@ -30419,19 +30416,19 @@
     </row>
     <row r="216" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B216" t="s">
+        <v>997</v>
+      </c>
+      <c r="C216" t="s">
         <v>998</v>
-      </c>
-      <c r="C216" t="s">
-        <v>999</v>
       </c>
       <c r="D216">
         <v>2021</v>
       </c>
       <c r="E216" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F216" t="s">
         <v>155</v>
@@ -30554,10 +30551,10 @@
         <v>323</v>
       </c>
       <c r="BM216" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BV216" t="s">
         <v>1001</v>
-      </c>
-      <c r="BV216" t="s">
-        <v>1002</v>
       </c>
       <c r="BW216" t="s">
         <v>304</v>
@@ -30602,7 +30599,7 @@
         <v>432</v>
       </c>
       <c r="EE216" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="EF216">
         <v>33.299999999999997</v>
@@ -30629,7 +30626,7 @@
         <v>18</v>
       </c>
       <c r="ET216" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="EU216">
         <v>81</v>
@@ -30640,13 +30637,13 @@
     </row>
     <row r="217" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B217" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C217" t="s">
         <v>1005</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1006</v>
       </c>
       <c r="D217">
         <v>1998</v>
@@ -30760,7 +30757,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="EE217" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="EJ217">
         <v>7</v>
@@ -30768,13 +30765,13 @@
     </row>
     <row r="218" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B218" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C218" t="s">
         <v>1008</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1009</v>
       </c>
       <c r="D218">
         <v>2014</v>
@@ -30924,7 +30921,7 @@
         <v>1</v>
       </c>
       <c r="EE218" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="EF218">
         <v>44.6</v>
@@ -30944,13 +30941,13 @@
     </row>
     <row r="219" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B219" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C219" t="s">
         <v>1011</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1012</v>
       </c>
       <c r="D219">
         <v>2001</v>
@@ -31007,7 +31004,7 @@
         <v>0</v>
       </c>
       <c r="AU219" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AV219">
         <v>1</v>
@@ -31037,7 +31034,7 @@
         <v>212</v>
       </c>
       <c r="BM219" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="CL219">
         <v>28</v>
@@ -31061,7 +31058,7 @@
         <v>0.73</v>
       </c>
       <c r="EE219" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="EJ219">
         <v>4</v>
@@ -31075,13 +31072,13 @@
     </row>
     <row r="220" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B220" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C220" t="s">
         <v>1016</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1017</v>
       </c>
       <c r="D220">
         <v>2017</v>
@@ -31138,7 +31135,7 @@
         <v>0</v>
       </c>
       <c r="AU220" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AV220">
         <v>1</v>
@@ -31183,7 +31180,7 @@
         <v>169</v>
       </c>
       <c r="DP220" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="DU220">
         <v>81</v>
@@ -31192,7 +31189,7 @@
         <v>1</v>
       </c>
       <c r="EE220" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="EJ220">
         <v>3.79</v>
@@ -31201,18 +31198,18 @@
         <v>21</v>
       </c>
       <c r="ET220" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="221" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B221" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C221" t="s">
         <v>1022</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1023</v>
       </c>
       <c r="D221">
         <v>2006</v>
@@ -31299,10 +31296,10 @@
         <v>212</v>
       </c>
       <c r="BM221" t="s">
+        <v>1023</v>
+      </c>
+      <c r="BN221" t="s">
         <v>1024</v>
-      </c>
-      <c r="BN221" t="s">
-        <v>1025</v>
       </c>
       <c r="BO221" t="s">
         <v>236</v>
@@ -31326,18 +31323,18 @@
         <v>0.69</v>
       </c>
       <c r="EE221" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="222" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B222" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C222" t="s">
         <v>1027</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1028</v>
       </c>
       <c r="D222">
         <v>2017</v>
@@ -31394,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AU222" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AV222">
         <v>0</v>
@@ -31448,7 +31445,7 @@
         <v>0.76</v>
       </c>
       <c r="EE222" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="EJ222">
         <v>6.57</v>
@@ -31457,18 +31454,18 @@
         <v>21</v>
       </c>
       <c r="ET222" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="223" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B223" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C223" t="s">
         <v>1030</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1031</v>
       </c>
       <c r="D223">
         <v>2021</v>
@@ -31575,13 +31572,13 @@
     </row>
     <row r="224" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B224" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C224" t="s">
         <v>1032</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1033</v>
       </c>
       <c r="D224">
         <v>2020</v>
@@ -31635,7 +31632,7 @@
         <v>0</v>
       </c>
       <c r="AU224" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AV224">
         <v>1</v>
@@ -31664,13 +31661,13 @@
     </row>
     <row r="225" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B225" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C225" t="s">
         <v>1035</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1036</v>
       </c>
       <c r="D225">
         <v>2017</v>
@@ -31688,7 +31685,7 @@
         <v>159</v>
       </c>
       <c r="V225" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AA225" t="s">
         <v>161</v>
@@ -31727,7 +31724,7 @@
         <v>0</v>
       </c>
       <c r="AU225" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AV225">
         <v>0</v>
@@ -31778,7 +31775,7 @@
         <v>0.43</v>
       </c>
       <c r="EE225" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="EJ225">
         <v>13.71</v>
@@ -31787,18 +31784,18 @@
         <v>20</v>
       </c>
       <c r="ET225" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="226" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B226" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C226" t="s">
         <v>1040</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1041</v>
       </c>
       <c r="D226">
         <v>2022</v>
@@ -31855,7 +31852,7 @@
         <v>0</v>
       </c>
       <c r="AU226" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AV226">
         <v>1</v>
@@ -31894,7 +31891,7 @@
         <v>167</v>
       </c>
       <c r="DK226" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="DU226">
         <v>3006</v>
@@ -31903,7 +31900,7 @@
         <v>0.54</v>
       </c>
       <c r="EE226" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="EJ226">
         <v>4.72</v>
@@ -31912,18 +31909,18 @@
         <v>18</v>
       </c>
       <c r="ET226" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="227" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B227" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C227" t="s">
         <v>1045</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1046</v>
       </c>
       <c r="D227">
         <v>2008</v>
@@ -31980,7 +31977,7 @@
         <v>0</v>
       </c>
       <c r="AU227" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AV227">
         <v>1</v>
@@ -32031,7 +32028,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="EE227" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="EJ227">
         <v>9.77</v>
@@ -32045,13 +32042,13 @@
     </row>
     <row r="228" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B228" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C228" t="s">
         <v>1049</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1050</v>
       </c>
       <c r="D228">
         <v>2022</v>
@@ -32141,10 +32138,10 @@
         <v>323</v>
       </c>
       <c r="BM228" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="BN228" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="BO228" t="s">
         <v>501</v>
@@ -32173,13 +32170,13 @@
     </row>
     <row r="229" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B229" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C229" t="s">
         <v>1052</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1053</v>
       </c>
       <c r="D229">
         <v>2015</v>
@@ -32236,7 +32233,7 @@
         <v>0</v>
       </c>
       <c r="AU229" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AV229">
         <v>1</v>
@@ -32290,7 +32287,7 @@
         <v>0.51</v>
       </c>
       <c r="EE229" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="EO229">
         <v>14</v>
@@ -32301,13 +32298,13 @@
     </row>
     <row r="230" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B230" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C230" t="s">
         <v>1055</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1056</v>
       </c>
       <c r="D230">
         <v>2021</v>
@@ -32393,13 +32390,13 @@
     </row>
     <row r="231" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B231" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C231" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D231">
         <v>2020</v>
@@ -32456,7 +32453,7 @@
         <v>0</v>
       </c>
       <c r="AU231" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AV231">
         <v>1</v>
@@ -32509,19 +32506,19 @@
     </row>
     <row r="232" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B232" t="s">
         <v>473</v>
       </c>
       <c r="C232" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D232">
         <v>2021</v>
       </c>
       <c r="E232" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F232" t="s">
         <v>229</v>
@@ -32604,13 +32601,13 @@
     </row>
     <row r="233" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B233" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C233" t="s">
         <v>1061</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1062</v>
       </c>
       <c r="D233">
         <v>2021</v>
@@ -32667,7 +32664,7 @@
         <v>0</v>
       </c>
       <c r="AU233" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AV233">
         <v>1</v>
@@ -32696,13 +32693,13 @@
     </row>
     <row r="234" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B234" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C234" t="s">
         <v>1064</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1065</v>
       </c>
       <c r="D234">
         <v>2011</v>
@@ -32759,7 +32756,7 @@
         <v>0</v>
       </c>
       <c r="AU234" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AV234">
         <v>1</v>
@@ -32810,7 +32807,7 @@
         <v>1</v>
       </c>
       <c r="EE234" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EJ234">
         <v>4.9000000000000004</v>
@@ -32818,13 +32815,13 @@
     </row>
     <row r="235" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B235" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C235" t="s">
         <v>1068</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1069</v>
       </c>
       <c r="D235">
         <v>2018</v>
@@ -32878,7 +32875,7 @@
         <v>0</v>
       </c>
       <c r="AU235" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AV235">
         <v>1</v>
@@ -32908,7 +32905,7 @@
         <v>323</v>
       </c>
       <c r="BZ235" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="CL235">
         <v>26</v>
@@ -32929,18 +32926,18 @@
         <v>25</v>
       </c>
       <c r="ET235" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="236" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B236" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C236" t="s">
         <v>1073</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1074</v>
       </c>
       <c r="D236">
         <v>2020</v>
@@ -33044,19 +33041,19 @@
     </row>
     <row r="237" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B237" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C237" t="s">
         <v>1075</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1076</v>
       </c>
       <c r="D237">
         <v>2022</v>
       </c>
       <c r="E237" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F237" t="s">
         <v>155</v>
@@ -33110,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AU237" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AV237">
         <v>1</v>
@@ -33139,13 +33136,13 @@
     </row>
     <row r="238" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B238" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C238" t="s">
         <v>1079</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1080</v>
       </c>
       <c r="D238">
         <v>2020</v>
@@ -33255,13 +33252,13 @@
     </row>
     <row r="239" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B239" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C239" t="s">
         <v>1081</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1082</v>
       </c>
       <c r="D239">
         <v>2021</v>
@@ -33321,7 +33318,7 @@
         <v>0</v>
       </c>
       <c r="AU239" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AV239">
         <v>1</v>
@@ -33351,7 +33348,7 @@
         <v>212</v>
       </c>
       <c r="BM239" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="CL239">
         <v>14</v>
@@ -33375,7 +33372,7 @@
         <v>0.83</v>
       </c>
       <c r="EE239" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="EJ239">
         <v>1.06</v>
@@ -33383,13 +33380,13 @@
     </row>
     <row r="240" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B240" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C240" t="s">
         <v>1085</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1086</v>
       </c>
       <c r="D240">
         <v>2018</v>
@@ -33536,7 +33533,7 @@
         <v>1</v>
       </c>
       <c r="EE240" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="EF240">
         <v>45.96</v>
@@ -33554,7 +33551,7 @@
         <v>26</v>
       </c>
       <c r="ET240" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="EU240">
         <v>66</v>
@@ -33562,13 +33559,13 @@
     </row>
     <row r="241" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B241" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C241" t="s">
         <v>1089</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1090</v>
       </c>
       <c r="D241">
         <v>2003</v>
@@ -33658,7 +33655,7 @@
         <v>439</v>
       </c>
       <c r="BN241" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="CL241">
         <v>66.5</v>
@@ -33667,7 +33664,7 @@
         <v>167</v>
       </c>
       <c r="DF241" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="DK241" t="s">
         <v>169</v>
@@ -33682,7 +33679,7 @@
         <v>1</v>
       </c>
       <c r="EE241" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="EJ241">
         <v>4.93</v>
@@ -33690,13 +33687,13 @@
     </row>
     <row r="242" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B242" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C242" t="s">
         <v>1094</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1095</v>
       </c>
       <c r="D242">
         <v>2021</v>
@@ -33807,10 +33804,10 @@
         <v>604</v>
       </c>
       <c r="BN242" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BV242" t="s">
         <v>1096</v>
-      </c>
-      <c r="BV242" t="s">
-        <v>1097</v>
       </c>
       <c r="CL242">
         <v>28</v>
@@ -33849,7 +33846,7 @@
         <v>0.45</v>
       </c>
       <c r="EE242" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="EF242">
         <v>37.380000000000003</v>

--- a/data/df_final_codes.xlsx
+++ b/data/df_final_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abajrami/Documents/GitHub/temp_riskperception/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B752D-BFCD-6140-B998-7EC0E95926C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232AFA24-2004-0E48-B9F2-D4E74ABF9615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21840" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35660" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1339">
   <si>
     <t>author</t>
   </si>
@@ -3345,9 +3345,6 @@
   </si>
   <si>
     <t>A 2-Study Psychometric Evaluation of the Modified Dementia Worry Scale</t>
-  </si>
-  <si>
-    <t>0.09</t>
   </si>
   <si>
     <t>.78</t>
@@ -4415,15 +4412,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EX242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N65" workbookViewId="0">
-      <selection activeCell="Q108" sqref="Q108"/>
+    <sheetView tabSelected="1" topLeftCell="AA201" workbookViewId="0">
+      <selection activeCell="AG244" sqref="AG244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4887,7 +4884,7 @@
     </row>
     <row r="2" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B2" t="s">
         <v>153</v>
@@ -5075,7 +5072,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B3" t="s">
         <v>173</v>
@@ -5191,7 +5188,7 @@
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B4" t="s">
         <v>179</v>
@@ -5370,7 +5367,7 @@
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B5" t="s">
         <v>185</v>
@@ -5561,7 +5558,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B6" t="s">
         <v>190</v>
@@ -5674,7 +5671,7 @@
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
@@ -5766,7 +5763,7 @@
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B8" t="s">
         <v>201</v>
@@ -5897,7 +5894,7 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B9" t="s">
         <v>208</v>
@@ -6019,7 +6016,7 @@
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B10" t="s">
         <v>217</v>
@@ -6123,7 +6120,7 @@
     </row>
     <row r="11" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B11" t="s">
         <v>221</v>
@@ -6242,7 +6239,7 @@
     </row>
     <row r="12" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B12" t="s">
         <v>224</v>
@@ -6334,7 +6331,7 @@
     </row>
     <row r="13" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B13" t="s">
         <v>227</v>
@@ -6456,7 +6453,7 @@
     </row>
     <row r="14" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B14" t="s">
         <v>233</v>
@@ -6581,7 +6578,7 @@
     </row>
     <row r="15" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B15" t="s">
         <v>240</v>
@@ -6700,7 +6697,7 @@
     </row>
     <row r="16" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B16" t="s">
         <v>246</v>
@@ -6819,7 +6816,7 @@
     </row>
     <row r="17" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -6935,7 +6932,7 @@
     </row>
     <row r="18" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B18" t="s">
         <v>255</v>
@@ -7066,7 +7063,7 @@
     </row>
     <row r="19" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B19" t="s">
         <v>263</v>
@@ -7197,7 +7194,7 @@
     </row>
     <row r="20" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B20" t="s">
         <v>240</v>
@@ -7319,7 +7316,7 @@
     </row>
     <row r="21" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B21" t="s">
         <v>272</v>
@@ -7411,7 +7408,7 @@
     </row>
     <row r="22" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B22" t="s">
         <v>275</v>
@@ -7533,7 +7530,7 @@
     </row>
     <row r="23" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B23" t="s">
         <v>280</v>
@@ -7628,7 +7625,7 @@
     </row>
     <row r="24" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B24" t="s">
         <v>285</v>
@@ -7801,7 +7798,7 @@
     </row>
     <row r="25" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B25" t="s">
         <v>290</v>
@@ -7905,7 +7902,7 @@
     </row>
     <row r="26" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B26" t="s">
         <v>294</v>
@@ -8000,7 +7997,7 @@
     </row>
     <row r="27" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B27" t="s">
         <v>297</v>
@@ -8113,7 +8110,7 @@
     </row>
     <row r="28" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B28" t="s">
         <v>301</v>
@@ -8208,7 +8205,7 @@
     </row>
     <row r="29" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B29" t="s">
         <v>305</v>
@@ -8336,7 +8333,7 @@
     </row>
     <row r="30" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B30" t="s">
         <v>307</v>
@@ -8428,7 +8425,7 @@
     </row>
     <row r="31" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B31" t="s">
         <v>311</v>
@@ -8547,7 +8544,7 @@
     </row>
     <row r="32" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B32" t="s">
         <v>318</v>
@@ -8639,7 +8636,7 @@
     </row>
     <row r="33" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B33" t="s">
         <v>321</v>
@@ -8770,7 +8767,7 @@
     </row>
     <row r="34" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B34" t="s">
         <v>330</v>
@@ -8862,7 +8859,7 @@
     </row>
     <row r="35" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B35" t="s">
         <v>332</v>
@@ -8993,7 +8990,7 @@
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B36" t="s">
         <v>338</v>
@@ -9088,7 +9085,7 @@
     </row>
     <row r="37" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B37" t="s">
         <v>341</v>
@@ -9180,7 +9177,7 @@
     </row>
     <row r="38" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B38" t="s">
         <v>344</v>
@@ -9359,7 +9356,7 @@
     </row>
     <row r="39" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B39" t="s">
         <v>351</v>
@@ -9526,7 +9523,7 @@
     </row>
     <row r="40" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B40" t="s">
         <v>356</v>
@@ -9645,7 +9642,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B41" t="s">
         <v>361</v>
@@ -9761,7 +9758,7 @@
     </row>
     <row r="42" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B42" t="s">
         <v>363</v>
@@ -9880,7 +9877,7 @@
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B43" t="s">
         <v>367</v>
@@ -10053,7 +10050,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B44" t="s">
         <v>344</v>
@@ -10196,7 +10193,7 @@
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B45" t="s">
         <v>376</v>
@@ -10321,7 +10318,7 @@
     </row>
     <row r="46" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B46" t="s">
         <v>381</v>
@@ -10503,7 +10500,7 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B47" t="s">
         <v>387</v>
@@ -10598,7 +10595,7 @@
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B48" t="s">
         <v>390</v>
@@ -10720,7 +10717,7 @@
     </row>
     <row r="49" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B49" t="s">
         <v>394</v>
@@ -10809,7 +10806,7 @@
     </row>
     <row r="50" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B50" t="s">
         <v>396</v>
@@ -10898,7 +10895,7 @@
     </row>
     <row r="51" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B51" t="s">
         <v>399</v>
@@ -11014,7 +11011,7 @@
     </row>
     <row r="52" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B52" t="s">
         <v>402</v>
@@ -11109,7 +11106,7 @@
     </row>
     <row r="53" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B53" t="s">
         <v>406</v>
@@ -11249,7 +11246,7 @@
     </row>
     <row r="54" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B54" t="s">
         <v>410</v>
@@ -11380,7 +11377,7 @@
     </row>
     <row r="55" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B55" t="s">
         <v>417</v>
@@ -11499,7 +11496,7 @@
     </row>
     <row r="56" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B56" t="s">
         <v>420</v>
@@ -11612,7 +11609,7 @@
     </row>
     <row r="57" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B57" t="s">
         <v>423</v>
@@ -11725,7 +11722,7 @@
     </row>
     <row r="58" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B58" t="s">
         <v>428</v>
@@ -11832,7 +11829,7 @@
     </row>
     <row r="59" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B59" t="s">
         <v>432</v>
@@ -11924,7 +11921,7 @@
     </row>
     <row r="60" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B60" t="s">
         <v>436</v>
@@ -12109,7 +12106,7 @@
     </row>
     <row r="61" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B61" t="s">
         <v>442</v>
@@ -12204,7 +12201,7 @@
     </row>
     <row r="62" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B62" t="s">
         <v>445</v>
@@ -12299,7 +12296,7 @@
     </row>
     <row r="63" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B63" t="s">
         <v>449</v>
@@ -12424,7 +12421,7 @@
     </row>
     <row r="64" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B64" t="s">
         <v>453</v>
@@ -12558,7 +12555,7 @@
     </row>
     <row r="65" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B65" t="s">
         <v>459</v>
@@ -12662,7 +12659,7 @@
     </row>
     <row r="66" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B66" t="s">
         <v>461</v>
@@ -12754,7 +12751,7 @@
     </row>
     <row r="67" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B67" t="s">
         <v>464</v>
@@ -12921,7 +12918,7 @@
     </row>
     <row r="68" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B68" t="s">
         <v>173</v>
@@ -13013,7 +13010,7 @@
     </row>
     <row r="69" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B69" t="s">
         <v>469</v>
@@ -13108,7 +13105,7 @@
     </row>
     <row r="70" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B70" t="s">
         <v>473</v>
@@ -13287,7 +13284,7 @@
     </row>
     <row r="71" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B71" t="s">
         <v>479</v>
@@ -13391,7 +13388,7 @@
     </row>
     <row r="72" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B72" t="s">
         <v>483</v>
@@ -13519,7 +13516,7 @@
     </row>
     <row r="73" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B73" t="s">
         <v>487</v>
@@ -13611,7 +13608,7 @@
     </row>
     <row r="74" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B74" t="s">
         <v>490</v>
@@ -13703,7 +13700,7 @@
     </row>
     <row r="75" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B75" t="s">
         <v>493</v>
@@ -13933,7 +13930,7 @@
     </row>
     <row r="76" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B76" t="s">
         <v>499</v>
@@ -14121,7 +14118,7 @@
     </row>
     <row r="77" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B77" t="s">
         <v>504</v>
@@ -14246,7 +14243,7 @@
     </row>
     <row r="78" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B78" t="s">
         <v>509</v>
@@ -14428,7 +14425,7 @@
     </row>
     <row r="79" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B79" t="s">
         <v>516</v>
@@ -14544,7 +14541,7 @@
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B80" t="s">
         <v>520</v>
@@ -14630,7 +14627,7 @@
     </row>
     <row r="81" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B81" t="s">
         <v>523</v>
@@ -14722,7 +14719,7 @@
     </row>
     <row r="82" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B82" t="s">
         <v>525</v>
@@ -14847,7 +14844,7 @@
     </row>
     <row r="83" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B83" t="s">
         <v>530</v>
@@ -14972,7 +14969,7 @@
     </row>
     <row r="84" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B84" t="s">
         <v>535</v>
@@ -15127,7 +15124,7 @@
     </row>
     <row r="85" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B85" t="s">
         <v>394</v>
@@ -15222,7 +15219,7 @@
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B86" t="s">
         <v>544</v>
@@ -15353,7 +15350,7 @@
     </row>
     <row r="87" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B87" t="s">
         <v>550</v>
@@ -15448,7 +15445,7 @@
     </row>
     <row r="88" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B88" t="s">
         <v>553</v>
@@ -15567,7 +15564,7 @@
     </row>
     <row r="89" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B89" t="s">
         <v>556</v>
@@ -15662,7 +15659,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B90" t="s">
         <v>560</v>
@@ -15796,7 +15793,7 @@
     </row>
     <row r="91" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B91" t="s">
         <v>566</v>
@@ -15888,7 +15885,7 @@
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B92" t="s">
         <v>568</v>
@@ -16004,7 +16001,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B93" t="s">
         <v>442</v>
@@ -16165,7 +16162,7 @@
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B94" t="s">
         <v>572</v>
@@ -16257,7 +16254,7 @@
     </row>
     <row r="95" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B95" t="s">
         <v>574</v>
@@ -16379,7 +16376,7 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B96" t="s">
         <v>577</v>
@@ -16513,7 +16510,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B97" t="s">
         <v>582</v>
@@ -16605,7 +16602,7 @@
     </row>
     <row r="98" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B98" t="s">
         <v>584</v>
@@ -16733,7 +16730,7 @@
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B99" t="s">
         <v>587</v>
@@ -16822,7 +16819,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B100" t="s">
         <v>590</v>
@@ -16941,7 +16938,7 @@
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B101" t="s">
         <v>594</v>
@@ -17063,7 +17060,7 @@
     </row>
     <row r="102" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B102" t="s">
         <v>597</v>
@@ -17194,7 +17191,7 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B103" t="s">
         <v>601</v>
@@ -17319,7 +17316,7 @@
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B104" t="s">
         <v>606</v>
@@ -17444,7 +17441,7 @@
     </row>
     <row r="105" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B105" t="s">
         <v>609</v>
@@ -17539,7 +17536,7 @@
     </row>
     <row r="106" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B106" t="s">
         <v>574</v>
@@ -17667,7 +17664,7 @@
     </row>
     <row r="107" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B107" t="s">
         <v>617</v>
@@ -17756,7 +17753,7 @@
     </row>
     <row r="108" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B108" t="s">
         <v>620</v>
@@ -17923,7 +17920,7 @@
     </row>
     <row r="109" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B109" t="s">
         <v>624</v>
@@ -18018,7 +18015,7 @@
     </row>
     <row r="110" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B110" t="s">
         <v>628</v>
@@ -18134,7 +18131,7 @@
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B111" t="s">
         <v>632</v>
@@ -18226,7 +18223,7 @@
     </row>
     <row r="112" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B112" t="s">
         <v>634</v>
@@ -18348,7 +18345,7 @@
     </row>
     <row r="113" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B113" t="s">
         <v>638</v>
@@ -18443,7 +18440,7 @@
     </row>
     <row r="114" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B114" t="s">
         <v>641</v>
@@ -18568,7 +18565,7 @@
     </row>
     <row r="115" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B115" t="s">
         <v>646</v>
@@ -18663,7 +18660,7 @@
     </row>
     <row r="116" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B116" t="s">
         <v>650</v>
@@ -18788,7 +18785,7 @@
     </row>
     <row r="117" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B117" t="s">
         <v>653</v>
@@ -18907,7 +18904,7 @@
     </row>
     <row r="118" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B118" t="s">
         <v>658</v>
@@ -19023,7 +19020,7 @@
     </row>
     <row r="119" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B119" t="s">
         <v>663</v>
@@ -19142,7 +19139,7 @@
     </row>
     <row r="120" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B120" t="s">
         <v>667</v>
@@ -19255,7 +19252,7 @@
     </row>
     <row r="121" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B121" t="s">
         <v>670</v>
@@ -19350,7 +19347,7 @@
     </row>
     <row r="122" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B122" t="s">
         <v>673</v>
@@ -19466,7 +19463,7 @@
     </row>
     <row r="123" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B123" t="s">
         <v>676</v>
@@ -19597,7 +19594,7 @@
     </row>
     <row r="124" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B124" t="s">
         <v>683</v>
@@ -19692,7 +19689,7 @@
     </row>
     <row r="125" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B125" t="s">
         <v>687</v>
@@ -19820,7 +19817,7 @@
     </row>
     <row r="126" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B126" t="s">
         <v>691</v>
@@ -19912,7 +19909,7 @@
     </row>
     <row r="127" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B127" t="s">
         <v>694</v>
@@ -20004,7 +20001,7 @@
     </row>
     <row r="128" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B128" t="s">
         <v>697</v>
@@ -20129,7 +20126,7 @@
     </row>
     <row r="129" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B129" t="s">
         <v>703</v>
@@ -20251,7 +20248,7 @@
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B130" t="s">
         <v>574</v>
@@ -20376,7 +20373,7 @@
     </row>
     <row r="131" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B131" t="s">
         <v>687</v>
@@ -20501,7 +20498,7 @@
     </row>
     <row r="132" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B132" t="s">
         <v>710</v>
@@ -20692,7 +20689,7 @@
     </row>
     <row r="133" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B133" t="s">
         <v>712</v>
@@ -20823,7 +20820,7 @@
     </row>
     <row r="134" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B134" t="s">
         <v>716</v>
@@ -20918,7 +20915,7 @@
     </row>
     <row r="135" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B135" t="s">
         <v>720</v>
@@ -21037,7 +21034,7 @@
     </row>
     <row r="136" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B136" t="s">
         <v>722</v>
@@ -21162,7 +21159,7 @@
     </row>
     <row r="137" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B137" t="s">
         <v>728</v>
@@ -21281,7 +21278,7 @@
     </row>
     <row r="138" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B138" t="s">
         <v>730</v>
@@ -21412,7 +21409,7 @@
     </row>
     <row r="139" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B139" t="s">
         <v>734</v>
@@ -21531,7 +21528,7 @@
     </row>
     <row r="140" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B140" t="s">
         <v>739</v>
@@ -21650,7 +21647,7 @@
     </row>
     <row r="141" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B141" t="s">
         <v>743</v>
@@ -21745,7 +21742,7 @@
     </row>
     <row r="142" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B142" t="s">
         <v>663</v>
@@ -21834,7 +21831,7 @@
     </row>
     <row r="143" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B143" t="s">
         <v>748</v>
@@ -21950,7 +21947,7 @@
     </row>
     <row r="144" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B144" t="s">
         <v>748</v>
@@ -22042,7 +22039,7 @@
     </row>
     <row r="145" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B145" t="s">
         <v>752</v>
@@ -22134,7 +22131,7 @@
     </row>
     <row r="146" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B146" t="s">
         <v>574</v>
@@ -22262,7 +22259,7 @@
     </row>
     <row r="147" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B147" t="s">
         <v>756</v>
@@ -22387,7 +22384,7 @@
     </row>
     <row r="148" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B148" t="s">
         <v>761</v>
@@ -22479,7 +22476,7 @@
     </row>
     <row r="149" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B149" t="s">
         <v>764</v>
@@ -22601,7 +22598,7 @@
     </row>
     <row r="150" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B150" t="s">
         <v>770</v>
@@ -22711,7 +22708,7 @@
     </row>
     <row r="151" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B151" t="s">
         <v>544</v>
@@ -22830,7 +22827,7 @@
     </row>
     <row r="152" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B152" t="s">
         <v>775</v>
@@ -22952,7 +22949,7 @@
     </row>
     <row r="153" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B153" t="s">
         <v>780</v>
@@ -23074,7 +23071,7 @@
     </row>
     <row r="154" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B154" t="s">
         <v>783</v>
@@ -23169,7 +23166,7 @@
     </row>
     <row r="155" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B155" t="s">
         <v>787</v>
@@ -23282,7 +23279,7 @@
     </row>
     <row r="156" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B156" t="s">
         <v>789</v>
@@ -23395,7 +23392,7 @@
     </row>
     <row r="157" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B157" t="s">
         <v>793</v>
@@ -23490,7 +23487,7 @@
     </row>
     <row r="158" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B158" t="s">
         <v>797</v>
@@ -23615,7 +23612,7 @@
     </row>
     <row r="159" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B159" t="s">
         <v>799</v>
@@ -23710,7 +23707,7 @@
     </row>
     <row r="160" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B160" t="s">
         <v>803</v>
@@ -23805,7 +23802,7 @@
     </row>
     <row r="161" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B161" t="s">
         <v>246</v>
@@ -23900,7 +23897,7 @@
     </row>
     <row r="162" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B162" t="s">
         <v>697</v>
@@ -24028,7 +24025,7 @@
     </row>
     <row r="163" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B163" t="s">
         <v>809</v>
@@ -24153,7 +24150,7 @@
     </row>
     <row r="164" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B164" t="s">
         <v>812</v>
@@ -24278,7 +24275,7 @@
     </row>
     <row r="165" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B165" t="s">
         <v>816</v>
@@ -24403,7 +24400,7 @@
     </row>
     <row r="166" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B166" t="s">
         <v>819</v>
@@ -24495,7 +24492,7 @@
     </row>
     <row r="167" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B167" t="s">
         <v>821</v>
@@ -24590,7 +24587,7 @@
     </row>
     <row r="168" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B168" t="s">
         <v>825</v>
@@ -24721,7 +24718,7 @@
     </row>
     <row r="169" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B169" t="s">
         <v>830</v>
@@ -24813,7 +24810,7 @@
     </row>
     <row r="170" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B170" t="s">
         <v>832</v>
@@ -24905,7 +24902,7 @@
     </row>
     <row r="171" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B171" t="s">
         <v>834</v>
@@ -25021,7 +25018,7 @@
     </row>
     <row r="172" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B172" t="s">
         <v>197</v>
@@ -25113,7 +25110,7 @@
     </row>
     <row r="173" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B173" t="s">
         <v>840</v>
@@ -25208,7 +25205,7 @@
     </row>
     <row r="174" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B174" t="s">
         <v>843</v>
@@ -25300,7 +25297,7 @@
     </row>
     <row r="175" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B175" t="s">
         <v>846</v>
@@ -25431,7 +25428,7 @@
     </row>
     <row r="176" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B176" t="s">
         <v>852</v>
@@ -25556,7 +25553,7 @@
     </row>
     <row r="177" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B177" t="s">
         <v>855</v>
@@ -25681,7 +25678,7 @@
     </row>
     <row r="178" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B178" t="s">
         <v>862</v>
@@ -25797,7 +25794,7 @@
     </row>
     <row r="179" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B179" t="s">
         <v>867</v>
@@ -25886,7 +25883,7 @@
     </row>
     <row r="180" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B180" t="s">
         <v>870</v>
@@ -26029,7 +26026,7 @@
     </row>
     <row r="181" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B181" t="s">
         <v>875</v>
@@ -26121,7 +26118,7 @@
     </row>
     <row r="182" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B182" t="s">
         <v>878</v>
@@ -26243,7 +26240,7 @@
     </row>
     <row r="183" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B183" t="s">
         <v>880</v>
@@ -26368,7 +26365,7 @@
     </row>
     <row r="184" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B184" t="s">
         <v>428</v>
@@ -26487,7 +26484,7 @@
     </row>
     <row r="185" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B185" t="s">
         <v>888</v>
@@ -26603,7 +26600,7 @@
     </row>
     <row r="186" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B186" t="s">
         <v>891</v>
@@ -26734,7 +26731,7 @@
     </row>
     <row r="187" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B187" t="s">
         <v>896</v>
@@ -26862,7 +26859,7 @@
     </row>
     <row r="188" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B188" t="s">
         <v>899</v>
@@ -26981,7 +26978,7 @@
     </row>
     <row r="189" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B189" t="s">
         <v>903</v>
@@ -27100,7 +27097,7 @@
     </row>
     <row r="190" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B190" t="s">
         <v>906</v>
@@ -27222,7 +27219,7 @@
     </row>
     <row r="191" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B191" t="s">
         <v>793</v>
@@ -27317,7 +27314,7 @@
     </row>
     <row r="192" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B192" t="s">
         <v>703</v>
@@ -27430,7 +27427,7 @@
     </row>
     <row r="193" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B193" t="s">
         <v>915</v>
@@ -27555,7 +27552,7 @@
     </row>
     <row r="194" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B194" t="s">
         <v>917</v>
@@ -27698,7 +27695,7 @@
     </row>
     <row r="195" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B195" t="s">
         <v>923</v>
@@ -27787,7 +27784,7 @@
     </row>
     <row r="196" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B196" t="s">
         <v>927</v>
@@ -27921,7 +27918,7 @@
     </row>
     <row r="197" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B197" t="s">
         <v>929</v>
@@ -28016,7 +28013,7 @@
     </row>
     <row r="198" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B198" t="s">
         <v>487</v>
@@ -28132,7 +28129,7 @@
     </row>
     <row r="199" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B199" t="s">
         <v>936</v>
@@ -28263,7 +28260,7 @@
     </row>
     <row r="200" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B200" t="s">
         <v>525</v>
@@ -28376,7 +28373,7 @@
     </row>
     <row r="201" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B201" t="s">
         <v>943</v>
@@ -28465,7 +28462,7 @@
     </row>
     <row r="202" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B202" t="s">
         <v>946</v>
@@ -28767,7 +28764,7 @@
     </row>
     <row r="203" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B203" t="s">
         <v>951</v>
@@ -28856,7 +28853,7 @@
     </row>
     <row r="204" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B204" t="s">
         <v>953</v>
@@ -28975,7 +28972,7 @@
     </row>
     <row r="205" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B205" t="s">
         <v>957</v>
@@ -29094,7 +29091,7 @@
     </row>
     <row r="206" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B206" t="s">
         <v>959</v>
@@ -29216,7 +29213,7 @@
     </row>
     <row r="207" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B207" t="s">
         <v>963</v>
@@ -29341,7 +29338,7 @@
     </row>
     <row r="208" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B208" t="s">
         <v>525</v>
@@ -29481,7 +29478,7 @@
     </row>
     <row r="209" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B209" t="s">
         <v>703</v>
@@ -29651,7 +29648,7 @@
     </row>
     <row r="210" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B210" t="s">
         <v>976</v>
@@ -29773,7 +29770,7 @@
     </row>
     <row r="211" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B211" t="s">
         <v>981</v>
@@ -29868,7 +29865,7 @@
     </row>
     <row r="212" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B212" t="s">
         <v>703</v>
@@ -30089,7 +30086,7 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B213" t="s">
         <v>988</v>
@@ -30202,7 +30199,7 @@
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B214" t="s">
         <v>990</v>
@@ -30324,7 +30321,7 @@
     </row>
     <row r="215" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B215" t="s">
         <v>994</v>
@@ -30416,7 +30413,7 @@
     </row>
     <row r="216" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B216" t="s">
         <v>997</v>
@@ -30637,7 +30634,7 @@
     </row>
     <row r="217" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B217" t="s">
         <v>1004</v>
@@ -30765,7 +30762,7 @@
     </row>
     <row r="218" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B218" t="s">
         <v>1007</v>
@@ -30941,7 +30938,7 @@
     </row>
     <row r="219" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B219" t="s">
         <v>1010</v>
@@ -31072,7 +31069,7 @@
     </row>
     <row r="220" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B220" t="s">
         <v>1015</v>
@@ -31203,7 +31200,7 @@
     </row>
     <row r="221" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B221" t="s">
         <v>1021</v>
@@ -31328,7 +31325,7 @@
     </row>
     <row r="222" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B222" t="s">
         <v>1026</v>
@@ -31459,7 +31456,7 @@
     </row>
     <row r="223" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B223" t="s">
         <v>1029</v>
@@ -31572,7 +31569,7 @@
     </row>
     <row r="224" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B224" t="s">
         <v>1031</v>
@@ -31661,7 +31658,7 @@
     </row>
     <row r="225" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B225" t="s">
         <v>1034</v>
@@ -31789,7 +31786,7 @@
     </row>
     <row r="226" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B226" t="s">
         <v>1039</v>
@@ -31914,7 +31911,7 @@
     </row>
     <row r="227" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B227" t="s">
         <v>1044</v>
@@ -32042,7 +32039,7 @@
     </row>
     <row r="228" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B228" t="s">
         <v>1048</v>
@@ -32170,7 +32167,7 @@
     </row>
     <row r="229" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B229" t="s">
         <v>1051</v>
@@ -32298,7 +32295,7 @@
     </row>
     <row r="230" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B230" t="s">
         <v>1054</v>
@@ -32390,7 +32387,7 @@
     </row>
     <row r="231" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B231" t="s">
         <v>1031</v>
@@ -32506,7 +32503,7 @@
     </row>
     <row r="232" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B232" t="s">
         <v>473</v>
@@ -32601,7 +32598,7 @@
     </row>
     <row r="233" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B233" t="s">
         <v>1060</v>
@@ -32693,7 +32690,7 @@
     </row>
     <row r="234" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B234" t="s">
         <v>1063</v>
@@ -32815,7 +32812,7 @@
     </row>
     <row r="235" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B235" t="s">
         <v>1067</v>
@@ -32931,7 +32928,7 @@
     </row>
     <row r="236" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B236" t="s">
         <v>1072</v>
@@ -33041,7 +33038,7 @@
     </row>
     <row r="237" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B237" t="s">
         <v>1074</v>
@@ -33136,7 +33133,7 @@
     </row>
     <row r="238" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B238" t="s">
         <v>1078</v>
@@ -33252,7 +33249,7 @@
     </row>
     <row r="239" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B239" t="s">
         <v>1080</v>
@@ -33380,7 +33377,7 @@
     </row>
     <row r="240" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B240" t="s">
         <v>1084</v>
@@ -33559,7 +33556,7 @@
     </row>
     <row r="241" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B241" t="s">
         <v>1088</v>
@@ -33687,7 +33684,7 @@
     </row>
     <row r="242" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B242" t="s">
         <v>1093</v>
@@ -33803,11 +33800,11 @@
       <c r="BM242" t="s">
         <v>604</v>
       </c>
-      <c r="BN242" t="s">
+      <c r="BN242">
+        <v>0.9</v>
+      </c>
+      <c r="BV242" t="s">
         <v>1095</v>
-      </c>
-      <c r="BV242" t="s">
-        <v>1096</v>
       </c>
       <c r="CL242">
         <v>28</v>
@@ -33846,7 +33843,7 @@
         <v>0.45</v>
       </c>
       <c r="EE242" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="EF242">
         <v>37.380000000000003</v>

--- a/data/df_final_codes.xlsx
+++ b/data/df_final_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abajrami/Documents/GitHub/temp_riskperception/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holze\Documents\Temporal stability\temp_riskperception\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232AFA24-2004-0E48-B9F2-D4E74ABF9615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F682947D-58C9-46A3-99CB-8D8F96594370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35660" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="1337">
   <si>
     <t>author</t>
   </si>
@@ -2963,12 +2963,6 @@
   </si>
   <si>
     <t>0.57</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.61</t>
   </si>
   <si>
     <t>usa, china</t>
@@ -4412,15 +4406,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EX242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA201" workbookViewId="0">
-      <selection activeCell="AG244" sqref="AG244"/>
+    <sheetView tabSelected="1" topLeftCell="AT147" workbookViewId="0">
+      <selection activeCell="AX152" sqref="AX152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4882,9 +4876,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B2" t="s">
         <v>153</v>
@@ -5070,9 +5064,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B3" t="s">
         <v>173</v>
@@ -5186,9 +5180,9 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B4" t="s">
         <v>179</v>
@@ -5365,9 +5359,9 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B5" t="s">
         <v>185</v>
@@ -5556,9 +5550,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B6" t="s">
         <v>190</v>
@@ -5669,9 +5663,9 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
@@ -5761,9 +5755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B8" t="s">
         <v>201</v>
@@ -5892,9 +5886,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B9" t="s">
         <v>208</v>
@@ -6014,9 +6008,9 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B10" t="s">
         <v>217</v>
@@ -6118,9 +6112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B11" t="s">
         <v>221</v>
@@ -6237,9 +6231,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B12" t="s">
         <v>224</v>
@@ -6329,9 +6323,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B13" t="s">
         <v>227</v>
@@ -6451,9 +6445,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B14" t="s">
         <v>233</v>
@@ -6576,9 +6570,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B15" t="s">
         <v>240</v>
@@ -6695,9 +6689,9 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="16" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:154" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B16" t="s">
         <v>246</v>
@@ -6814,9 +6808,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="17" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -6930,9 +6924,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B18" t="s">
         <v>255</v>
@@ -7061,9 +7055,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B19" t="s">
         <v>263</v>
@@ -7192,9 +7186,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B20" t="s">
         <v>240</v>
@@ -7314,9 +7308,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B21" t="s">
         <v>272</v>
@@ -7406,9 +7400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B22" t="s">
         <v>275</v>
@@ -7528,9 +7522,9 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="23" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B23" t="s">
         <v>280</v>
@@ -7623,9 +7617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B24" t="s">
         <v>285</v>
@@ -7796,9 +7790,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B25" t="s">
         <v>290</v>
@@ -7900,9 +7894,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B26" t="s">
         <v>294</v>
@@ -7995,9 +7989,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B27" t="s">
         <v>297</v>
@@ -8108,9 +8102,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B28" t="s">
         <v>301</v>
@@ -8199,13 +8193,10 @@
       <c r="BC28">
         <v>0</v>
       </c>
-      <c r="BM28" t="s">
-        <v>304</v>
-      </c>
     </row>
-    <row r="29" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B29" t="s">
         <v>305</v>
@@ -8331,9 +8322,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B30" t="s">
         <v>307</v>
@@ -8423,9 +8414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B31" t="s">
         <v>311</v>
@@ -8542,9 +8533,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B32" t="s">
         <v>318</v>
@@ -8634,9 +8625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B33" t="s">
         <v>321</v>
@@ -8765,9 +8756,9 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="34" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B34" t="s">
         <v>330</v>
@@ -8857,9 +8848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B35" t="s">
         <v>332</v>
@@ -8988,9 +8979,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B36" t="s">
         <v>338</v>
@@ -9083,9 +9074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B37" t="s">
         <v>341</v>
@@ -9175,9 +9166,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B38" t="s">
         <v>344</v>
@@ -9354,9 +9345,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B39" t="s">
         <v>351</v>
@@ -9521,9 +9512,9 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="40" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B40" t="s">
         <v>356</v>
@@ -9618,9 +9609,6 @@
       <c r="BH40" t="s">
         <v>195</v>
       </c>
-      <c r="BM40" t="s">
-        <v>360</v>
-      </c>
       <c r="CB40" t="s">
         <v>165</v>
       </c>
@@ -9640,9 +9628,9 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="41" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B41" t="s">
         <v>361</v>
@@ -9756,9 +9744,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B42" t="s">
         <v>363</v>
@@ -9875,9 +9863,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B43" t="s">
         <v>367</v>
@@ -10048,9 +10036,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B44" t="s">
         <v>344</v>
@@ -10191,9 +10179,9 @@
         <v>15.08</v>
       </c>
     </row>
-    <row r="45" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B45" t="s">
         <v>376</v>
@@ -10316,9 +10304,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B46" t="s">
         <v>381</v>
@@ -10498,9 +10486,9 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="47" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B47" t="s">
         <v>387</v>
@@ -10593,9 +10581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B48" t="s">
         <v>390</v>
@@ -10715,9 +10703,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="49" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B49" t="s">
         <v>394</v>
@@ -10804,9 +10792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B50" t="s">
         <v>396</v>
@@ -10893,9 +10881,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B51" t="s">
         <v>399</v>
@@ -11009,9 +10997,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B52" t="s">
         <v>402</v>
@@ -11104,9 +11092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B53" t="s">
         <v>406</v>
@@ -11244,9 +11232,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B54" t="s">
         <v>410</v>
@@ -11375,9 +11363,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B55" t="s">
         <v>417</v>
@@ -11494,9 +11482,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B56" t="s">
         <v>420</v>
@@ -11607,9 +11595,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B57" t="s">
         <v>423</v>
@@ -11720,9 +11708,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B58" t="s">
         <v>428</v>
@@ -11827,9 +11815,9 @@
         <v>743</v>
       </c>
     </row>
-    <row r="59" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B59" t="s">
         <v>432</v>
@@ -11919,9 +11907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B60" t="s">
         <v>436</v>
@@ -12104,9 +12092,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B61" t="s">
         <v>442</v>
@@ -12199,9 +12187,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B62" t="s">
         <v>445</v>
@@ -12294,9 +12282,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B63" t="s">
         <v>449</v>
@@ -12419,9 +12407,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B64" t="s">
         <v>453</v>
@@ -12553,9 +12541,9 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B65" t="s">
         <v>459</v>
@@ -12657,9 +12645,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B66" t="s">
         <v>461</v>
@@ -12749,9 +12737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B67" t="s">
         <v>464</v>
@@ -12916,9 +12904,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B68" t="s">
         <v>173</v>
@@ -13008,9 +12996,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B69" t="s">
         <v>469</v>
@@ -13103,9 +13091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B70" t="s">
         <v>473</v>
@@ -13282,9 +13270,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B71" t="s">
         <v>479</v>
@@ -13386,9 +13374,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="72" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B72" t="s">
         <v>483</v>
@@ -13514,9 +13502,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="73" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B73" t="s">
         <v>487</v>
@@ -13606,9 +13594,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B74" t="s">
         <v>490</v>
@@ -13698,9 +13686,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B75" t="s">
         <v>493</v>
@@ -13928,9 +13916,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B76" t="s">
         <v>499</v>
@@ -14116,9 +14104,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B77" t="s">
         <v>504</v>
@@ -14241,9 +14229,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="78" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B78" t="s">
         <v>509</v>
@@ -14423,9 +14411,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B79" t="s">
         <v>516</v>
@@ -14539,9 +14527,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="80" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B80" t="s">
         <v>520</v>
@@ -14625,9 +14613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B81" t="s">
         <v>523</v>
@@ -14717,9 +14705,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B82" t="s">
         <v>525</v>
@@ -14842,9 +14830,9 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="83" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B83" t="s">
         <v>530</v>
@@ -14967,9 +14955,9 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="84" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B84" t="s">
         <v>535</v>
@@ -15122,9 +15110,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B85" t="s">
         <v>394</v>
@@ -15217,9 +15205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B86" t="s">
         <v>544</v>
@@ -15348,9 +15336,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B87" t="s">
         <v>550</v>
@@ -15443,9 +15431,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B88" t="s">
         <v>553</v>
@@ -15562,9 +15550,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B89" t="s">
         <v>556</v>
@@ -15657,9 +15645,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B90" t="s">
         <v>560</v>
@@ -15791,9 +15779,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="91" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B91" t="s">
         <v>566</v>
@@ -15883,9 +15871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B92" t="s">
         <v>568</v>
@@ -15999,9 +15987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B93" t="s">
         <v>442</v>
@@ -16160,9 +16148,9 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B94" t="s">
         <v>572</v>
@@ -16252,9 +16240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B95" t="s">
         <v>574</v>
@@ -16374,9 +16362,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B96" t="s">
         <v>577</v>
@@ -16508,9 +16496,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B97" t="s">
         <v>582</v>
@@ -16600,9 +16588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B98" t="s">
         <v>584</v>
@@ -16728,9 +16716,9 @@
         <v>586</v>
       </c>
     </row>
-    <row r="99" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B99" t="s">
         <v>587</v>
@@ -16817,9 +16805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B100" t="s">
         <v>590</v>
@@ -16936,9 +16924,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="101" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B101" t="s">
         <v>594</v>
@@ -17058,9 +17046,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B102" t="s">
         <v>597</v>
@@ -17189,9 +17177,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B103" t="s">
         <v>601</v>
@@ -17314,9 +17302,9 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B104" t="s">
         <v>606</v>
@@ -17439,9 +17427,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="105" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B105" t="s">
         <v>609</v>
@@ -17534,9 +17522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B106" t="s">
         <v>574</v>
@@ -17662,9 +17650,9 @@
         <v>616</v>
       </c>
     </row>
-    <row r="107" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B107" t="s">
         <v>617</v>
@@ -17751,9 +17739,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B108" t="s">
         <v>620</v>
@@ -17918,9 +17906,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B109" t="s">
         <v>624</v>
@@ -18013,9 +18001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B110" t="s">
         <v>628</v>
@@ -18129,9 +18117,9 @@
         <v>631</v>
       </c>
     </row>
-    <row r="111" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B111" t="s">
         <v>632</v>
@@ -18221,9 +18209,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B112" t="s">
         <v>634</v>
@@ -18343,9 +18331,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B113" t="s">
         <v>638</v>
@@ -18438,9 +18426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B114" t="s">
         <v>641</v>
@@ -18563,9 +18551,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B115" t="s">
         <v>646</v>
@@ -18658,9 +18646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B116" t="s">
         <v>650</v>
@@ -18783,9 +18771,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B117" t="s">
         <v>653</v>
@@ -18902,9 +18890,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="118" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B118" t="s">
         <v>658</v>
@@ -19018,9 +19006,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B119" t="s">
         <v>663</v>
@@ -19137,9 +19125,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B120" t="s">
         <v>667</v>
@@ -19250,9 +19238,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B121" t="s">
         <v>670</v>
@@ -19345,9 +19333,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B122" t="s">
         <v>673</v>
@@ -19461,9 +19449,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="123" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B123" t="s">
         <v>676</v>
@@ -19592,9 +19580,9 @@
         <v>682</v>
       </c>
     </row>
-    <row r="124" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B124" t="s">
         <v>683</v>
@@ -19687,9 +19675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B125" t="s">
         <v>687</v>
@@ -19815,9 +19803,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B126" t="s">
         <v>691</v>
@@ -19907,9 +19895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B127" t="s">
         <v>694</v>
@@ -19999,9 +19987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B128" t="s">
         <v>697</v>
@@ -20124,9 +20112,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="129" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B129" t="s">
         <v>703</v>
@@ -20246,9 +20234,9 @@
         <v>705</v>
       </c>
     </row>
-    <row r="130" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B130" t="s">
         <v>574</v>
@@ -20371,9 +20359,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B131" t="s">
         <v>687</v>
@@ -20496,9 +20484,9 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="132" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B132" t="s">
         <v>710</v>
@@ -20687,9 +20675,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B133" t="s">
         <v>712</v>
@@ -20818,9 +20806,9 @@
         <v>715</v>
       </c>
     </row>
-    <row r="134" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B134" t="s">
         <v>716</v>
@@ -20913,9 +20901,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B135" t="s">
         <v>720</v>
@@ -21032,9 +21020,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B136" t="s">
         <v>722</v>
@@ -21157,9 +21145,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="137" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B137" t="s">
         <v>728</v>
@@ -21276,9 +21264,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B138" t="s">
         <v>730</v>
@@ -21407,9 +21395,9 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B139" t="s">
         <v>734</v>
@@ -21526,9 +21514,9 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="140" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B140" t="s">
         <v>739</v>
@@ -21645,9 +21633,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B141" t="s">
         <v>743</v>
@@ -21740,9 +21728,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B142" t="s">
         <v>663</v>
@@ -21829,9 +21817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B143" t="s">
         <v>748</v>
@@ -21945,9 +21933,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="144" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B144" t="s">
         <v>748</v>
@@ -22037,9 +22025,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B145" t="s">
         <v>752</v>
@@ -22129,9 +22117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B146" t="s">
         <v>574</v>
@@ -22257,9 +22245,9 @@
         <v>616</v>
       </c>
     </row>
-    <row r="147" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B147" t="s">
         <v>756</v>
@@ -22382,9 +22370,9 @@
         <v>760</v>
       </c>
     </row>
-    <row r="148" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B148" t="s">
         <v>761</v>
@@ -22474,9 +22462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B149" t="s">
         <v>764</v>
@@ -22596,9 +22584,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="150" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B150" t="s">
         <v>770</v>
@@ -22706,9 +22694,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B151" t="s">
         <v>544</v>
@@ -22825,9 +22813,9 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="152" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B152" t="s">
         <v>775</v>
@@ -22947,9 +22935,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="153" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B153" t="s">
         <v>780</v>
@@ -23069,9 +23057,9 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="154" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B154" t="s">
         <v>783</v>
@@ -23164,9 +23152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B155" t="s">
         <v>787</v>
@@ -23277,9 +23265,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B156" t="s">
         <v>789</v>
@@ -23390,9 +23378,9 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="157" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B157" t="s">
         <v>793</v>
@@ -23485,9 +23473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B158" t="s">
         <v>797</v>
@@ -23610,9 +23598,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="159" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B159" t="s">
         <v>799</v>
@@ -23705,9 +23693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B160" t="s">
         <v>803</v>
@@ -23800,9 +23788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B161" t="s">
         <v>246</v>
@@ -23895,9 +23883,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B162" t="s">
         <v>697</v>
@@ -24023,9 +24011,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="163" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B163" t="s">
         <v>809</v>
@@ -24148,9 +24136,9 @@
         <v>811</v>
       </c>
     </row>
-    <row r="164" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B164" t="s">
         <v>812</v>
@@ -24240,7 +24228,7 @@
         <v>1</v>
       </c>
       <c r="BH164" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="BM164" t="s">
         <v>375</v>
@@ -24273,9 +24261,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B165" t="s">
         <v>816</v>
@@ -24398,9 +24386,9 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="166" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B166" t="s">
         <v>819</v>
@@ -24490,9 +24478,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B167" t="s">
         <v>821</v>
@@ -24585,9 +24573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B168" t="s">
         <v>825</v>
@@ -24716,9 +24704,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="169" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B169" t="s">
         <v>830</v>
@@ -24808,9 +24796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B170" t="s">
         <v>832</v>
@@ -24900,9 +24888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B171" t="s">
         <v>834</v>
@@ -25016,9 +25004,9 @@
         <v>686</v>
       </c>
     </row>
-    <row r="172" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B172" t="s">
         <v>197</v>
@@ -25108,9 +25096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B173" t="s">
         <v>840</v>
@@ -25203,9 +25191,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B174" t="s">
         <v>843</v>
@@ -25295,9 +25283,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B175" t="s">
         <v>846</v>
@@ -25426,9 +25414,9 @@
         <v>851</v>
       </c>
     </row>
-    <row r="176" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B176" t="s">
         <v>852</v>
@@ -25551,9 +25539,9 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="177" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B177" t="s">
         <v>855</v>
@@ -25676,9 +25664,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="178" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B178" t="s">
         <v>862</v>
@@ -25792,9 +25780,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="179" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B179" t="s">
         <v>867</v>
@@ -25881,9 +25869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B180" t="s">
         <v>870</v>
@@ -26024,9 +26012,9 @@
         <v>874</v>
       </c>
     </row>
-    <row r="181" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B181" t="s">
         <v>875</v>
@@ -26116,9 +26104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B182" t="s">
         <v>878</v>
@@ -26238,9 +26226,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B183" t="s">
         <v>880</v>
@@ -26363,9 +26351,9 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B184" t="s">
         <v>428</v>
@@ -26482,9 +26470,9 @@
         <v>887</v>
       </c>
     </row>
-    <row r="185" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B185" t="s">
         <v>888</v>
@@ -26598,9 +26586,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="186" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B186" t="s">
         <v>891</v>
@@ -26729,9 +26717,9 @@
         <v>895</v>
       </c>
     </row>
-    <row r="187" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B187" t="s">
         <v>896</v>
@@ -26857,9 +26845,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B188" t="s">
         <v>899</v>
@@ -26976,9 +26964,9 @@
         <v>13.49</v>
       </c>
     </row>
-    <row r="189" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B189" t="s">
         <v>903</v>
@@ -27095,9 +27083,9 @@
         <v>15.02</v>
       </c>
     </row>
-    <row r="190" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B190" t="s">
         <v>906</v>
@@ -27217,9 +27205,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="191" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B191" t="s">
         <v>793</v>
@@ -27312,9 +27300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B192" t="s">
         <v>703</v>
@@ -27425,9 +27413,9 @@
         <v>433</v>
       </c>
     </row>
-    <row r="193" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B193" t="s">
         <v>915</v>
@@ -27550,9 +27538,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="194" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B194" t="s">
         <v>917</v>
@@ -27693,9 +27681,9 @@
         <v>586</v>
       </c>
     </row>
-    <row r="195" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B195" t="s">
         <v>923</v>
@@ -27782,9 +27770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B196" t="s">
         <v>927</v>
@@ -27916,9 +27904,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B197" t="s">
         <v>929</v>
@@ -28011,9 +27999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B198" t="s">
         <v>487</v>
@@ -28127,9 +28115,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="199" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B199" t="s">
         <v>936</v>
@@ -28258,9 +28246,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="200" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B200" t="s">
         <v>525</v>
@@ -28371,9 +28359,9 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="201" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B201" t="s">
         <v>943</v>
@@ -28460,9 +28448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B202" t="s">
         <v>946</v>
@@ -28762,9 +28750,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="203" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B203" t="s">
         <v>951</v>
@@ -28851,9 +28839,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B204" t="s">
         <v>953</v>
@@ -28970,9 +28958,9 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B205" t="s">
         <v>957</v>
@@ -29089,9 +29077,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B206" t="s">
         <v>959</v>
@@ -29211,9 +29199,9 @@
         <v>962</v>
       </c>
     </row>
-    <row r="207" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B207" t="s">
         <v>963</v>
@@ -29336,9 +29324,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="208" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:150" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B208" t="s">
         <v>525</v>
@@ -29431,25 +29419,7 @@
         <v>1</v>
       </c>
       <c r="BH208" t="s">
-        <v>323</v>
-      </c>
-      <c r="BM208" t="s">
-        <v>920</v>
-      </c>
-      <c r="BN208" t="s">
-        <v>969</v>
-      </c>
-      <c r="BO208" t="s">
-        <v>324</v>
-      </c>
-      <c r="BP208" t="s">
-        <v>970</v>
-      </c>
-      <c r="BQ208" t="s">
-        <v>971</v>
-      </c>
-      <c r="BR208" t="s">
-        <v>604</v>
+        <v>195</v>
       </c>
       <c r="CB208" t="s">
         <v>165</v>
@@ -29461,7 +29431,7 @@
         <v>169</v>
       </c>
       <c r="DP208" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="DU208">
         <v>901</v>
@@ -29476,15 +29446,15 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="209" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B209" t="s">
         <v>703</v>
       </c>
       <c r="C209" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D209">
         <v>2021</v>
@@ -29556,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="AU209" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AV209">
         <v>0</v>
@@ -29640,21 +29610,21 @@
         <v>0.46</v>
       </c>
       <c r="EE209" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="EF209">
         <v>59.7</v>
       </c>
     </row>
-    <row r="210" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B210" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C210" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D210">
         <v>2019</v>
@@ -29741,10 +29711,10 @@
         <v>212</v>
       </c>
       <c r="BZ210" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="CA210" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="CL210">
         <v>28</v>
@@ -29759,7 +29729,7 @@
         <v>169</v>
       </c>
       <c r="DP210" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="DU210">
         <v>469</v>
@@ -29768,21 +29738,21 @@
         <v>5.9700000000000003E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B211" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C211" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D211">
         <v>2015</v>
       </c>
       <c r="E211" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F211" t="s">
         <v>155</v>
@@ -29836,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="AU211" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AV211">
         <v>1</v>
@@ -29863,15 +29833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B212" t="s">
         <v>703</v>
       </c>
       <c r="C212" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D212">
         <v>2022</v>
@@ -29961,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="AU212" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AV212">
         <v>0</v>
@@ -30075,7 +30045,7 @@
         <v>0.44</v>
       </c>
       <c r="EE212" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="EF212">
         <v>63.3</v>
@@ -30084,15 +30054,15 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="213" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B213" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C213" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D213">
         <v>2012</v>
@@ -30197,21 +30167,21 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="214" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B214" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C214" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D214">
         <v>2021</v>
       </c>
       <c r="E214" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F214" t="s">
         <v>229</v>
@@ -30313,21 +30283,21 @@
         <v>6281</v>
       </c>
       <c r="EE214" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="EJ214">
         <v>15.52</v>
       </c>
     </row>
-    <row r="215" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B215" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C215" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D215">
         <v>2018</v>
@@ -30384,48 +30354,48 @@
         <v>0</v>
       </c>
       <c r="AU215" t="s">
+        <v>994</v>
+      </c>
+      <c r="AV215">
+        <v>0</v>
+      </c>
+      <c r="AW215">
+        <v>1</v>
+      </c>
+      <c r="AX215">
+        <v>0</v>
+      </c>
+      <c r="AY215">
+        <v>0</v>
+      </c>
+      <c r="AZ215">
+        <v>1</v>
+      </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:152" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B216" t="s">
+        <v>995</v>
+      </c>
+      <c r="C216" t="s">
         <v>996</v>
-      </c>
-      <c r="AV215">
-        <v>0</v>
-      </c>
-      <c r="AW215">
-        <v>1</v>
-      </c>
-      <c r="AX215">
-        <v>0</v>
-      </c>
-      <c r="AY215">
-        <v>0</v>
-      </c>
-      <c r="AZ215">
-        <v>1</v>
-      </c>
-      <c r="BA215">
-        <v>0</v>
-      </c>
-      <c r="BB215">
-        <v>0</v>
-      </c>
-      <c r="BC215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B216" t="s">
-        <v>997</v>
-      </c>
-      <c r="C216" t="s">
-        <v>998</v>
       </c>
       <c r="D216">
         <v>2021</v>
       </c>
       <c r="E216" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F216" t="s">
         <v>155</v>
@@ -30548,10 +30518,10 @@
         <v>323</v>
       </c>
       <c r="BM216" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="BV216" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="BW216" t="s">
         <v>304</v>
@@ -30596,7 +30566,7 @@
         <v>432</v>
       </c>
       <c r="EE216" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="EF216">
         <v>33.299999999999997</v>
@@ -30623,7 +30593,7 @@
         <v>18</v>
       </c>
       <c r="ET216" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="EU216">
         <v>81</v>
@@ -30632,15 +30602,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="217" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B217" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C217" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D217">
         <v>1998</v>
@@ -30754,21 +30724,21 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="EE217" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="EJ217">
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B218" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C218" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D218">
         <v>2014</v>
@@ -30918,7 +30888,7 @@
         <v>1</v>
       </c>
       <c r="EE218" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="EF218">
         <v>44.6</v>
@@ -30936,15 +30906,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="219" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B219" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C219" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D219">
         <v>2001</v>
@@ -31001,7 +30971,7 @@
         <v>0</v>
       </c>
       <c r="AU219" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AV219">
         <v>1</v>
@@ -31031,7 +31001,7 @@
         <v>212</v>
       </c>
       <c r="BM219" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="CL219">
         <v>28</v>
@@ -31055,7 +31025,7 @@
         <v>0.73</v>
       </c>
       <c r="EE219" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="EJ219">
         <v>4</v>
@@ -31067,15 +31037,15 @@
         <v>565</v>
       </c>
     </row>
-    <row r="220" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B220" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C220" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D220">
         <v>2017</v>
@@ -31132,7 +31102,7 @@
         <v>0</v>
       </c>
       <c r="AU220" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AV220">
         <v>1</v>
@@ -31177,7 +31147,7 @@
         <v>169</v>
       </c>
       <c r="DP220" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="DU220">
         <v>81</v>
@@ -31186,7 +31156,7 @@
         <v>1</v>
       </c>
       <c r="EE220" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="EJ220">
         <v>3.79</v>
@@ -31195,18 +31165,18 @@
         <v>21</v>
       </c>
       <c r="ET220" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="221" spans="1:152" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C221" t="s">
         <v>1020</v>
-      </c>
-    </row>
-    <row r="221" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1022</v>
       </c>
       <c r="D221">
         <v>2006</v>
@@ -31293,10 +31263,10 @@
         <v>212</v>
       </c>
       <c r="BM221" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="BN221" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="BO221" t="s">
         <v>236</v>
@@ -31320,18 +31290,18 @@
         <v>0.69</v>
       </c>
       <c r="EE221" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="222" spans="1:152" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C222" t="s">
         <v>1025</v>
-      </c>
-    </row>
-    <row r="222" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1027</v>
       </c>
       <c r="D222">
         <v>2017</v>
@@ -31451,18 +31421,18 @@
         <v>21</v>
       </c>
       <c r="ET222" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="223" spans="1:152" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C223" t="s">
         <v>1028</v>
-      </c>
-    </row>
-    <row r="223" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1030</v>
       </c>
       <c r="D223">
         <v>2021</v>
@@ -31567,15 +31537,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:152" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B224" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C224" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D224">
         <v>2020</v>
@@ -31629,42 +31599,42 @@
         <v>0</v>
       </c>
       <c r="AU224" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AV224">
+        <v>1</v>
+      </c>
+      <c r="AW224">
+        <v>0</v>
+      </c>
+      <c r="AX224">
+        <v>0</v>
+      </c>
+      <c r="AY224">
+        <v>0</v>
+      </c>
+      <c r="AZ224">
+        <v>0</v>
+      </c>
+      <c r="BA224">
+        <v>0</v>
+      </c>
+      <c r="BB224">
+        <v>0</v>
+      </c>
+      <c r="BC224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:151" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C225" t="s">
         <v>1033</v>
-      </c>
-      <c r="AV224">
-        <v>1</v>
-      </c>
-      <c r="AW224">
-        <v>0</v>
-      </c>
-      <c r="AX224">
-        <v>0</v>
-      </c>
-      <c r="AY224">
-        <v>0</v>
-      </c>
-      <c r="AZ224">
-        <v>0</v>
-      </c>
-      <c r="BA224">
-        <v>0</v>
-      </c>
-      <c r="BB224">
-        <v>0</v>
-      </c>
-      <c r="BC224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1035</v>
       </c>
       <c r="D225">
         <v>2017</v>
@@ -31721,7 +31691,7 @@
         <v>0</v>
       </c>
       <c r="AU225" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AV225">
         <v>0</v>
@@ -31772,7 +31742,7 @@
         <v>0.43</v>
       </c>
       <c r="EE225" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="EJ225">
         <v>13.71</v>
@@ -31781,18 +31751,18 @@
         <v>20</v>
       </c>
       <c r="ET225" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="226" spans="1:151" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C226" t="s">
         <v>1038</v>
-      </c>
-    </row>
-    <row r="226" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1040</v>
       </c>
       <c r="D226">
         <v>2022</v>
@@ -31849,7 +31819,7 @@
         <v>0</v>
       </c>
       <c r="AU226" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AV226">
         <v>1</v>
@@ -31897,7 +31867,7 @@
         <v>0.54</v>
       </c>
       <c r="EE226" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="EJ226">
         <v>4.72</v>
@@ -31906,18 +31876,18 @@
         <v>18</v>
       </c>
       <c r="ET226" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="227" spans="1:151" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C227" t="s">
         <v>1043</v>
-      </c>
-    </row>
-    <row r="227" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1045</v>
       </c>
       <c r="D227">
         <v>2008</v>
@@ -31974,7 +31944,7 @@
         <v>0</v>
       </c>
       <c r="AU227" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AV227">
         <v>1</v>
@@ -32025,7 +31995,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="EE227" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="EJ227">
         <v>9.77</v>
@@ -32037,15 +32007,15 @@
         <v>337</v>
       </c>
     </row>
-    <row r="228" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B228" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C228" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D228">
         <v>2022</v>
@@ -32138,7 +32108,7 @@
         <v>969</v>
       </c>
       <c r="BN228" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="BO228" t="s">
         <v>501</v>
@@ -32165,15 +32135,15 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B229" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C229" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D229">
         <v>2015</v>
@@ -32230,7 +32200,7 @@
         <v>0</v>
       </c>
       <c r="AU229" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AV229">
         <v>1</v>
@@ -32293,15 +32263,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B230" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C230" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D230">
         <v>2021</v>
@@ -32385,15 +32355,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B231" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C231" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D231">
         <v>2020</v>
@@ -32450,7 +32420,7 @@
         <v>0</v>
       </c>
       <c r="AU231" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AV231">
         <v>1</v>
@@ -32501,21 +32471,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B232" t="s">
         <v>473</v>
       </c>
       <c r="C232" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D232">
         <v>2021</v>
       </c>
       <c r="E232" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F232" t="s">
         <v>229</v>
@@ -32596,15 +32566,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B233" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C233" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D233">
         <v>2021</v>
@@ -32661,42 +32631,42 @@
         <v>0</v>
       </c>
       <c r="AU233" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AV233">
+        <v>1</v>
+      </c>
+      <c r="AW233">
+        <v>0</v>
+      </c>
+      <c r="AX233">
+        <v>0</v>
+      </c>
+      <c r="AY233">
+        <v>0</v>
+      </c>
+      <c r="AZ233">
+        <v>0</v>
+      </c>
+      <c r="BA233">
+        <v>0</v>
+      </c>
+      <c r="BB233">
+        <v>0</v>
+      </c>
+      <c r="BC233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:151" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C234" t="s">
         <v>1062</v>
-      </c>
-      <c r="AV233">
-        <v>1</v>
-      </c>
-      <c r="AW233">
-        <v>0</v>
-      </c>
-      <c r="AX233">
-        <v>0</v>
-      </c>
-      <c r="AY233">
-        <v>0</v>
-      </c>
-      <c r="AZ233">
-        <v>0</v>
-      </c>
-      <c r="BA233">
-        <v>0</v>
-      </c>
-      <c r="BB233">
-        <v>0</v>
-      </c>
-      <c r="BC233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1064</v>
       </c>
       <c r="D234">
         <v>2011</v>
@@ -32753,7 +32723,7 @@
         <v>0</v>
       </c>
       <c r="AU234" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AV234">
         <v>1</v>
@@ -32804,21 +32774,21 @@
         <v>1</v>
       </c>
       <c r="EE234" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="EJ234">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="235" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B235" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C235" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D235">
         <v>2018</v>
@@ -32872,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="AU235" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AV235">
         <v>1</v>
@@ -32902,7 +32872,7 @@
         <v>323</v>
       </c>
       <c r="BZ235" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="CL235">
         <v>26</v>
@@ -32923,18 +32893,18 @@
         <v>25</v>
       </c>
       <c r="ET235" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="236" spans="1:151" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C236" t="s">
         <v>1071</v>
-      </c>
-    </row>
-    <row r="236" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1073</v>
       </c>
       <c r="D236">
         <v>2020</v>
@@ -33036,21 +33006,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B237" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C237" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D237">
         <v>2022</v>
       </c>
       <c r="E237" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F237" t="s">
         <v>155</v>
@@ -33104,42 +33074,42 @@
         <v>0</v>
       </c>
       <c r="AU237" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AV237">
+        <v>1</v>
+      </c>
+      <c r="AW237">
+        <v>0</v>
+      </c>
+      <c r="AX237">
+        <v>0</v>
+      </c>
+      <c r="AY237">
+        <v>0</v>
+      </c>
+      <c r="AZ237">
+        <v>0</v>
+      </c>
+      <c r="BA237">
+        <v>0</v>
+      </c>
+      <c r="BB237">
+        <v>0</v>
+      </c>
+      <c r="BC237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:151" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C238" t="s">
         <v>1077</v>
-      </c>
-      <c r="AV237">
-        <v>1</v>
-      </c>
-      <c r="AW237">
-        <v>0</v>
-      </c>
-      <c r="AX237">
-        <v>0</v>
-      </c>
-      <c r="AY237">
-        <v>0</v>
-      </c>
-      <c r="AZ237">
-        <v>0</v>
-      </c>
-      <c r="BA237">
-        <v>0</v>
-      </c>
-      <c r="BB237">
-        <v>0</v>
-      </c>
-      <c r="BC237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1079</v>
       </c>
       <c r="D238">
         <v>2020</v>
@@ -33247,15 +33217,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="239" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B239" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C239" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D239">
         <v>2021</v>
@@ -33315,7 +33285,7 @@
         <v>0</v>
       </c>
       <c r="AU239" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AV239">
         <v>1</v>
@@ -33369,21 +33339,21 @@
         <v>0.83</v>
       </c>
       <c r="EE239" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="EJ239">
         <v>1.06</v>
       </c>
     </row>
-    <row r="240" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B240" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C240" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D240">
         <v>2018</v>
@@ -33530,7 +33500,7 @@
         <v>1</v>
       </c>
       <c r="EE240" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="EF240">
         <v>45.96</v>
@@ -33548,21 +33518,21 @@
         <v>26</v>
       </c>
       <c r="ET240" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="EU240">
         <v>66</v>
       </c>
     </row>
-    <row r="241" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B241" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C241" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D241">
         <v>2003</v>
@@ -33652,7 +33622,7 @@
         <v>439</v>
       </c>
       <c r="BN241" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="CL241">
         <v>66.5</v>
@@ -33661,7 +33631,7 @@
         <v>167</v>
       </c>
       <c r="DF241" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="DK241" t="s">
         <v>169</v>
@@ -33676,21 +33646,21 @@
         <v>1</v>
       </c>
       <c r="EE241" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="EJ241">
         <v>4.93</v>
       </c>
     </row>
-    <row r="242" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:151" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B242" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C242" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D242">
         <v>2021</v>
@@ -33804,7 +33774,7 @@
         <v>0.9</v>
       </c>
       <c r="BV242" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="CL242">
         <v>28</v>
@@ -33843,7 +33813,7 @@
         <v>0.45</v>
       </c>
       <c r="EE242" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="EF242">
         <v>37.380000000000003</v>
